--- a/kkWords.xlsx
+++ b/kkWords.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395">
   <si>
     <t>glowing</t>
   </si>
@@ -1291,6 +1291,2916 @@
   </si>
   <si>
     <t>浮雕</t>
+  </si>
+  <si>
+    <t>unit 7</t>
+  </si>
+  <si>
+    <t>单位7</t>
+  </si>
+  <si>
+    <t>leisure</t>
+  </si>
+  <si>
+    <t>闲暇</t>
+  </si>
+  <si>
+    <t>liable</t>
+  </si>
+  <si>
+    <t>容易</t>
+  </si>
+  <si>
+    <t>proclaim</t>
+  </si>
+  <si>
+    <t>宣布</t>
+  </si>
+  <si>
+    <t>prospect</t>
+  </si>
+  <si>
+    <t>展望</t>
+  </si>
+  <si>
+    <t>solitary</t>
+  </si>
+  <si>
+    <t>孤</t>
+  </si>
+  <si>
+    <t>specify</t>
+  </si>
+  <si>
+    <t>指定</t>
+  </si>
+  <si>
+    <t>speculate</t>
+  </si>
+  <si>
+    <t>推测</t>
+  </si>
+  <si>
+    <t>stain</t>
+  </si>
+  <si>
+    <t>弄脏</t>
+  </si>
+  <si>
+    <t>stall</t>
+  </si>
+  <si>
+    <t>摊子</t>
+  </si>
+  <si>
+    <t>avail</t>
+  </si>
+  <si>
+    <t>果</t>
+  </si>
+  <si>
+    <t>authentic</t>
+  </si>
+  <si>
+    <t>真实</t>
+  </si>
+  <si>
+    <t>attendant</t>
+  </si>
+  <si>
+    <t>服务员</t>
+  </si>
+  <si>
+    <t>augment</t>
+  </si>
+  <si>
+    <t>增加</t>
+  </si>
+  <si>
+    <t>avert</t>
+  </si>
+  <si>
+    <t>避免</t>
+  </si>
+  <si>
+    <t>benign</t>
+  </si>
+  <si>
+    <t>良性</t>
+  </si>
+  <si>
+    <t>brief</t>
+  </si>
+  <si>
+    <t>简要</t>
+  </si>
+  <si>
+    <t>cardinal</t>
+  </si>
+  <si>
+    <t>枢机主教</t>
+  </si>
+  <si>
+    <t>cognitive</t>
+  </si>
+  <si>
+    <t>认知</t>
+  </si>
+  <si>
+    <t>coincide</t>
+  </si>
+  <si>
+    <t>重合</t>
+  </si>
+  <si>
+    <t>competitive</t>
+  </si>
+  <si>
+    <t>竞争的</t>
+  </si>
+  <si>
+    <t>competent</t>
+  </si>
+  <si>
+    <t>胜任</t>
+  </si>
+  <si>
+    <t>consolidate</t>
+  </si>
+  <si>
+    <t>巩固</t>
+  </si>
+  <si>
+    <t>incentive</t>
+  </si>
+  <si>
+    <t>激励</t>
+  </si>
+  <si>
+    <t>incorporate</t>
+  </si>
+  <si>
+    <t>包括</t>
+  </si>
+  <si>
+    <t>inertia</t>
+  </si>
+  <si>
+    <t>惯性</t>
+  </si>
+  <si>
+    <t>innocent</t>
+  </si>
+  <si>
+    <t>无辜</t>
+  </si>
+  <si>
+    <t>insure</t>
+  </si>
+  <si>
+    <t>intelligible</t>
+  </si>
+  <si>
+    <t>明了的</t>
+  </si>
+  <si>
+    <t>intimate</t>
+  </si>
+  <si>
+    <t>亲密</t>
+  </si>
+  <si>
+    <t>lubricate</t>
+  </si>
+  <si>
+    <t>润滑</t>
+  </si>
+  <si>
+    <t>malignant</t>
+  </si>
+  <si>
+    <t>恶性</t>
+  </si>
+  <si>
+    <t>marvelous</t>
+  </si>
+  <si>
+    <t>奇妙</t>
+  </si>
+  <si>
+    <t>meditate</t>
+  </si>
+  <si>
+    <t>幽思</t>
+  </si>
+  <si>
+    <t>miserable</t>
+  </si>
+  <si>
+    <t>悲惨</t>
+  </si>
+  <si>
+    <t>moderate</t>
+  </si>
+  <si>
+    <t>中等</t>
+  </si>
+  <si>
+    <t>municipal</t>
+  </si>
+  <si>
+    <t>市政</t>
+  </si>
+  <si>
+    <t>novelty</t>
+  </si>
+  <si>
+    <t>新奇</t>
+  </si>
+  <si>
+    <t>objective</t>
+  </si>
+  <si>
+    <t>目的</t>
+  </si>
+  <si>
+    <t>omit</t>
+  </si>
+  <si>
+    <t>忽略</t>
+  </si>
+  <si>
+    <t>penetrate</t>
+  </si>
+  <si>
+    <t>穿透</t>
+  </si>
+  <si>
+    <t>plot</t>
+  </si>
+  <si>
+    <t>情节</t>
+  </si>
+  <si>
+    <t>porcelain</t>
+  </si>
+  <si>
+    <t>瓷</t>
+  </si>
+  <si>
+    <t>preceding</t>
+  </si>
+  <si>
+    <t>前</t>
+  </si>
+  <si>
+    <t>preclude</t>
+  </si>
+  <si>
+    <t>排除</t>
+  </si>
+  <si>
+    <t>prejudice</t>
+  </si>
+  <si>
+    <t>偏见</t>
+  </si>
+  <si>
+    <t>prescribe</t>
+  </si>
+  <si>
+    <t>规定</t>
+  </si>
+  <si>
+    <t>preside</t>
+  </si>
+  <si>
+    <t>主持</t>
+  </si>
+  <si>
+    <t>presume</t>
+  </si>
+  <si>
+    <t>假设</t>
+  </si>
+  <si>
+    <t>smash</t>
+  </si>
+  <si>
+    <t>粉碎</t>
+  </si>
+  <si>
+    <t>sniff</t>
+  </si>
+  <si>
+    <t>吸气</t>
+  </si>
+  <si>
+    <t>solemn</t>
+  </si>
+  <si>
+    <t>庄严</t>
+  </si>
+  <si>
+    <t>specialize</t>
+  </si>
+  <si>
+    <t>专攻</t>
+  </si>
+  <si>
+    <t>splendid</t>
+  </si>
+  <si>
+    <t>灿烂</t>
+  </si>
+  <si>
+    <t>mortal</t>
+  </si>
+  <si>
+    <t>凡人</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>抵押</t>
+  </si>
+  <si>
+    <t>sack</t>
+  </si>
+  <si>
+    <t>袋</t>
+  </si>
+  <si>
+    <t>sacred</t>
+  </si>
+  <si>
+    <t>神圣</t>
+  </si>
+  <si>
+    <t>unit 8</t>
+  </si>
+  <si>
+    <t>单元8</t>
+  </si>
+  <si>
+    <t>caress</t>
+  </si>
+  <si>
+    <t>抚摸</t>
+  </si>
+  <si>
+    <t>carpet</t>
+  </si>
+  <si>
+    <t>地毯</t>
+  </si>
+  <si>
+    <t>freight</t>
+  </si>
+  <si>
+    <t>货物</t>
+  </si>
+  <si>
+    <t>romance</t>
+  </si>
+  <si>
+    <t>浪漫</t>
+  </si>
+  <si>
+    <t>rot</t>
+  </si>
+  <si>
+    <t>腐烂</t>
+  </si>
+  <si>
+    <t>rotten</t>
+  </si>
+  <si>
+    <t>烂</t>
+  </si>
+  <si>
+    <t>rotary</t>
+  </si>
+  <si>
+    <t>旋转</t>
+  </si>
+  <si>
+    <t>politics</t>
+  </si>
+  <si>
+    <t>政治</t>
+  </si>
+  <si>
+    <t>retort</t>
+  </si>
+  <si>
+    <t>retreat</t>
+  </si>
+  <si>
+    <t>撤退</t>
+  </si>
+  <si>
+    <t>retrieve</t>
+  </si>
+  <si>
+    <t>取回</t>
+  </si>
+  <si>
+    <t>retrospect</t>
+  </si>
+  <si>
+    <t>回想起来</t>
+  </si>
+  <si>
+    <t>revise</t>
+  </si>
+  <si>
+    <t>修改</t>
+  </si>
+  <si>
+    <t>revive</t>
+  </si>
+  <si>
+    <t>复活</t>
+  </si>
+  <si>
+    <t>revolt</t>
+  </si>
+  <si>
+    <t>revolve</t>
+  </si>
+  <si>
+    <t>围绕</t>
+  </si>
+  <si>
+    <t>pneumonia</t>
+  </si>
+  <si>
+    <t>肺炎</t>
+  </si>
+  <si>
+    <t>brim</t>
+  </si>
+  <si>
+    <t>边</t>
+  </si>
+  <si>
+    <t>brisk</t>
+  </si>
+  <si>
+    <t>轻快</t>
+  </si>
+  <si>
+    <t>brittle</t>
+  </si>
+  <si>
+    <t>脆</t>
+  </si>
+  <si>
+    <t>sociable</t>
+  </si>
+  <si>
+    <t>社交的</t>
+  </si>
+  <si>
+    <t>socialism</t>
+  </si>
+  <si>
+    <t>社会主义</t>
+  </si>
+  <si>
+    <t>sociology</t>
+  </si>
+  <si>
+    <t>社会学</t>
+  </si>
+  <si>
+    <t>urge</t>
+  </si>
+  <si>
+    <t>敦促</t>
+  </si>
+  <si>
+    <t>equator</t>
+  </si>
+  <si>
+    <t>赤道</t>
+  </si>
+  <si>
+    <t>equivalent</t>
+  </si>
+  <si>
+    <t>当量</t>
+  </si>
+  <si>
+    <t>crystallize</t>
+  </si>
+  <si>
+    <t>结晶</t>
+  </si>
+  <si>
+    <t>era</t>
+  </si>
+  <si>
+    <t>时代</t>
+  </si>
+  <si>
+    <t>weary</t>
+  </si>
+  <si>
+    <t>厌倦</t>
+  </si>
+  <si>
+    <t>wedge</t>
+  </si>
+  <si>
+    <t>楔</t>
+  </si>
+  <si>
+    <t>weed</t>
+  </si>
+  <si>
+    <t>野草</t>
+  </si>
+  <si>
+    <t>weep</t>
+  </si>
+  <si>
+    <t>泣</t>
+  </si>
+  <si>
+    <t>neat</t>
+  </si>
+  <si>
+    <t>整齐</t>
+  </si>
+  <si>
+    <t>weigh</t>
+  </si>
+  <si>
+    <t>称重</t>
+  </si>
+  <si>
+    <t>weld</t>
+  </si>
+  <si>
+    <t>焊接</t>
+  </si>
+  <si>
+    <t>zeal</t>
+  </si>
+  <si>
+    <t>热情</t>
+  </si>
+  <si>
+    <t>zebra</t>
+  </si>
+  <si>
+    <t>斑马</t>
+  </si>
+  <si>
+    <t>prone</t>
+  </si>
+  <si>
+    <t>易于</t>
+  </si>
+  <si>
+    <t>thorny</t>
+  </si>
+  <si>
+    <t>多刺的</t>
+  </si>
+  <si>
+    <t>expire</t>
+  </si>
+  <si>
+    <t>到期</t>
+  </si>
+  <si>
+    <t>abdomen</t>
+  </si>
+  <si>
+    <t>腹部</t>
+  </si>
+  <si>
+    <t>abide</t>
+  </si>
+  <si>
+    <t>遵守</t>
+  </si>
+  <si>
+    <t>unit 9</t>
+  </si>
+  <si>
+    <t>第9单元</t>
+  </si>
+  <si>
+    <t>commemorate</t>
+  </si>
+  <si>
+    <t>纪念</t>
+  </si>
+  <si>
+    <t>commence</t>
+  </si>
+  <si>
+    <t>开始</t>
+  </si>
+  <si>
+    <t>commend</t>
+  </si>
+  <si>
+    <t>表彰</t>
+  </si>
+  <si>
+    <t>paradox</t>
+  </si>
+  <si>
+    <t>悖论</t>
+  </si>
+  <si>
+    <t>parade</t>
+  </si>
+  <si>
+    <t>游行</t>
+  </si>
+  <si>
+    <t>orientation</t>
+  </si>
+  <si>
+    <t>取向</t>
+  </si>
+  <si>
+    <t>revelation</t>
+  </si>
+  <si>
+    <t>启示</t>
+  </si>
+  <si>
+    <t>paralyze</t>
+  </si>
+  <si>
+    <t>瘫痪</t>
+  </si>
+  <si>
+    <t>breach</t>
+  </si>
+  <si>
+    <t>突破口</t>
+  </si>
+  <si>
+    <t>ornament</t>
+  </si>
+  <si>
+    <t>装饰</t>
+  </si>
+  <si>
+    <t>pastime</t>
+  </si>
+  <si>
+    <t>消遣</t>
+  </si>
+  <si>
+    <t>simplicity</t>
+  </si>
+  <si>
+    <t>简单</t>
+  </si>
+  <si>
+    <t>underestimate</t>
+  </si>
+  <si>
+    <t>低估</t>
+  </si>
+  <si>
+    <t>undergo</t>
+  </si>
+  <si>
+    <t>经历</t>
+  </si>
+  <si>
+    <t>undergraduate</t>
+  </si>
+  <si>
+    <t>大学本科</t>
+  </si>
+  <si>
+    <t>underlying</t>
+  </si>
+  <si>
+    <t>底层</t>
+  </si>
+  <si>
+    <t>undermine</t>
+  </si>
+  <si>
+    <t>破坏</t>
+  </si>
+  <si>
+    <t>undertake</t>
+  </si>
+  <si>
+    <t>承担</t>
+  </si>
+  <si>
+    <t>entertain</t>
+  </si>
+  <si>
+    <t>招待</t>
+  </si>
+  <si>
+    <t>nominal</t>
+  </si>
+  <si>
+    <t>公称</t>
+  </si>
+  <si>
+    <t>nominate</t>
+  </si>
+  <si>
+    <t>提名</t>
+  </si>
+  <si>
+    <t>notable</t>
+  </si>
+  <si>
+    <t>notify</t>
+  </si>
+  <si>
+    <t>通知</t>
+  </si>
+  <si>
+    <t>notion</t>
+  </si>
+  <si>
+    <t>概念</t>
+  </si>
+  <si>
+    <t>transaction</t>
+  </si>
+  <si>
+    <t>交易</t>
+  </si>
+  <si>
+    <t>transcend</t>
+  </si>
+  <si>
+    <t>超越</t>
+  </si>
+  <si>
+    <t>transient</t>
+  </si>
+  <si>
+    <t>短暂的</t>
+  </si>
+  <si>
+    <t>transition</t>
+  </si>
+  <si>
+    <t>过渡</t>
+  </si>
+  <si>
+    <t>transmit</t>
+  </si>
+  <si>
+    <t>发送</t>
+  </si>
+  <si>
+    <t>transparent</t>
+  </si>
+  <si>
+    <t>透明</t>
+  </si>
+  <si>
+    <t>transplant</t>
+  </si>
+  <si>
+    <t>移植</t>
+  </si>
+  <si>
+    <t>wrench</t>
+  </si>
+  <si>
+    <t>扳手</t>
+  </si>
+  <si>
+    <t>wretched</t>
+  </si>
+  <si>
+    <t>wrinkle</t>
+  </si>
+  <si>
+    <t>皱纹</t>
+  </si>
+  <si>
+    <t>yet</t>
+  </si>
+  <si>
+    <t>然而</t>
+  </si>
+  <si>
+    <t>yield</t>
+  </si>
+  <si>
+    <t>让</t>
+  </si>
+  <si>
+    <t>youngster</t>
+  </si>
+  <si>
+    <t>青少年</t>
+  </si>
+  <si>
+    <t>fabulous</t>
+  </si>
+  <si>
+    <t>极好</t>
+  </si>
+  <si>
+    <t>facility</t>
+  </si>
+  <si>
+    <t>设施</t>
+  </si>
+  <si>
+    <t>fascinate</t>
+  </si>
+  <si>
+    <t>吸引</t>
+  </si>
+  <si>
+    <t>unit 10</t>
+  </si>
+  <si>
+    <t>单位10</t>
+  </si>
+  <si>
+    <t>superficial</t>
+  </si>
+  <si>
+    <t>浅</t>
+  </si>
+  <si>
+    <t>supersonic</t>
+  </si>
+  <si>
+    <t>超音</t>
+  </si>
+  <si>
+    <t>superstition</t>
+  </si>
+  <si>
+    <t>迷信</t>
+  </si>
+  <si>
+    <t>supervise</t>
+  </si>
+  <si>
+    <t>监督</t>
+  </si>
+  <si>
+    <t>productive</t>
+  </si>
+  <si>
+    <t>生产的</t>
+  </si>
+  <si>
+    <t>proficiency</t>
+  </si>
+  <si>
+    <t>精通</t>
+  </si>
+  <si>
+    <t>diverse</t>
+  </si>
+  <si>
+    <t>多种</t>
+  </si>
+  <si>
+    <t>divert</t>
+  </si>
+  <si>
+    <t>转移</t>
+  </si>
+  <si>
+    <t>alien</t>
+  </si>
+  <si>
+    <t>外侨</t>
+  </si>
+  <si>
+    <t>allege</t>
+  </si>
+  <si>
+    <t>断言</t>
+  </si>
+  <si>
+    <t>alleviate</t>
+  </si>
+  <si>
+    <t>缓和</t>
+  </si>
+  <si>
+    <t>chart</t>
+  </si>
+  <si>
+    <t>图表</t>
+  </si>
+  <si>
+    <t>chase</t>
+  </si>
+  <si>
+    <t>追</t>
+  </si>
+  <si>
+    <t>explode</t>
+  </si>
+  <si>
+    <t>爆炸</t>
+  </si>
+  <si>
+    <t>exploit</t>
+  </si>
+  <si>
+    <t>利用</t>
+  </si>
+  <si>
+    <t>frown</t>
+  </si>
+  <si>
+    <t>皱眉</t>
+  </si>
+  <si>
+    <t>fruitful</t>
+  </si>
+  <si>
+    <t>卓有成效</t>
+  </si>
+  <si>
+    <t>linger</t>
+  </si>
+  <si>
+    <t>萦绕</t>
+  </si>
+  <si>
+    <t>linguistic</t>
+  </si>
+  <si>
+    <t>语言</t>
+  </si>
+  <si>
+    <t>overhear</t>
+  </si>
+  <si>
+    <t>偷听</t>
+  </si>
+  <si>
+    <t>overlap</t>
+  </si>
+  <si>
+    <t>交叠</t>
+  </si>
+  <si>
+    <t>overlook</t>
+  </si>
+  <si>
+    <t>俯瞰</t>
+  </si>
+  <si>
+    <t>overpass</t>
+  </si>
+  <si>
+    <t>立交桥</t>
+  </si>
+  <si>
+    <t>overseas</t>
+  </si>
+  <si>
+    <t>海外</t>
+  </si>
+  <si>
+    <t>overtake</t>
+  </si>
+  <si>
+    <t>overthrow</t>
+  </si>
+  <si>
+    <t>推翻</t>
+  </si>
+  <si>
+    <t>overturn</t>
+  </si>
+  <si>
+    <t>颠覆</t>
+  </si>
+  <si>
+    <t>overwhelming</t>
+  </si>
+  <si>
+    <t>压倒</t>
+  </si>
+  <si>
+    <t>ridge</t>
+  </si>
+  <si>
+    <t>岭</t>
+  </si>
+  <si>
+    <t>opaque</t>
+  </si>
+  <si>
+    <t>不透明</t>
+  </si>
+  <si>
+    <t>rigid</t>
+  </si>
+  <si>
+    <t>死板</t>
+  </si>
+  <si>
+    <t>rigorous</t>
+  </si>
+  <si>
+    <t>严格</t>
+  </si>
+  <si>
+    <t>pamphlet</t>
+  </si>
+  <si>
+    <t>小册子</t>
+  </si>
+  <si>
+    <t>patriotic</t>
+  </si>
+  <si>
+    <t>爱国</t>
+  </si>
+  <si>
+    <t>setback</t>
+  </si>
+  <si>
+    <t>挫折</t>
+  </si>
+  <si>
+    <t>cater</t>
+  </si>
+  <si>
+    <t>迎合</t>
+  </si>
+  <si>
+    <t>climax</t>
+  </si>
+  <si>
+    <t>高潮</t>
+  </si>
+  <si>
+    <t>costume</t>
+  </si>
+  <si>
+    <t>服装</t>
+  </si>
+  <si>
+    <t>cue</t>
+  </si>
+  <si>
+    <t>球杆</t>
+  </si>
+  <si>
+    <t>dash</t>
+  </si>
+  <si>
+    <t>短跑</t>
+  </si>
+  <si>
+    <t>grant</t>
+  </si>
+  <si>
+    <t>发放</t>
+  </si>
+  <si>
+    <t>hijack</t>
+  </si>
+  <si>
+    <t>劫持</t>
+  </si>
+  <si>
+    <t>humiliate</t>
+  </si>
+  <si>
+    <t>羞辱</t>
+  </si>
+  <si>
+    <t>enlighten</t>
+  </si>
+  <si>
+    <t>开导</t>
+  </si>
+  <si>
+    <t>entitle</t>
+  </si>
+  <si>
+    <t>有权</t>
+  </si>
+  <si>
+    <t>evolve</t>
+  </si>
+  <si>
+    <t>发展</t>
+  </si>
+  <si>
+    <t>unit 11</t>
+  </si>
+  <si>
+    <t>单位11</t>
+  </si>
+  <si>
+    <t>ritual</t>
+  </si>
+  <si>
+    <t>仪式</t>
+  </si>
+  <si>
+    <t>rival</t>
+  </si>
+  <si>
+    <t>对手</t>
+  </si>
+  <si>
+    <t>roar</t>
+  </si>
+  <si>
+    <t>怒吼</t>
+  </si>
+  <si>
+    <t>vary</t>
+  </si>
+  <si>
+    <t>变化</t>
+  </si>
+  <si>
+    <t>endeavor</t>
+  </si>
+  <si>
+    <t>努力</t>
+  </si>
+  <si>
+    <t>roast</t>
+  </si>
+  <si>
+    <t>烤</t>
+  </si>
+  <si>
+    <t>denote</t>
+  </si>
+  <si>
+    <t>表示</t>
+  </si>
+  <si>
+    <t>endow</t>
+  </si>
+  <si>
+    <t>赋予</t>
+  </si>
+  <si>
+    <t>endurance</t>
+  </si>
+  <si>
+    <t>耐力</t>
+  </si>
+  <si>
+    <t>endure</t>
+  </si>
+  <si>
+    <t>忍受</t>
+  </si>
+  <si>
+    <t>demonstrate</t>
+  </si>
+  <si>
+    <t>演示</t>
+  </si>
+  <si>
+    <t>denounce</t>
+  </si>
+  <si>
+    <t>谴责</t>
+  </si>
+  <si>
+    <t>dense</t>
+  </si>
+  <si>
+    <t>稠密</t>
+  </si>
+  <si>
+    <t>density</t>
+  </si>
+  <si>
+    <t>密度</t>
+  </si>
+  <si>
+    <t>departure</t>
+  </si>
+  <si>
+    <t>出发</t>
+  </si>
+  <si>
+    <t>uphold</t>
+  </si>
+  <si>
+    <t>坚持</t>
+  </si>
+  <si>
+    <t>upright</t>
+  </si>
+  <si>
+    <t>直立</t>
+  </si>
+  <si>
+    <t>uproar</t>
+  </si>
+  <si>
+    <t>骚动</t>
+  </si>
+  <si>
+    <t>redundant</t>
+  </si>
+  <si>
+    <t>冗</t>
+  </si>
+  <si>
+    <t>veil</t>
+  </si>
+  <si>
+    <t>面纱</t>
+  </si>
+  <si>
+    <t>perplex</t>
+  </si>
+  <si>
+    <t>困扰</t>
+  </si>
+  <si>
+    <t>persevere</t>
+  </si>
+  <si>
+    <t>持之以恒</t>
+  </si>
+  <si>
+    <t>perish</t>
+  </si>
+  <si>
+    <t>沦</t>
+  </si>
+  <si>
+    <t>emphasis</t>
+  </si>
+  <si>
+    <t>重点</t>
+  </si>
+  <si>
+    <t>reign</t>
+  </si>
+  <si>
+    <t>统治</t>
+  </si>
+  <si>
+    <t>verdict</t>
+  </si>
+  <si>
+    <t>判决书</t>
+  </si>
+  <si>
+    <t>resent</t>
+  </si>
+  <si>
+    <t>愤恨</t>
+  </si>
+  <si>
+    <t>absorb</t>
+  </si>
+  <si>
+    <t>abrupt</t>
+  </si>
+  <si>
+    <t>突兀</t>
+  </si>
+  <si>
+    <t>vein</t>
+  </si>
+  <si>
+    <t>静脉</t>
+  </si>
+  <si>
+    <t>venture</t>
+  </si>
+  <si>
+    <t>冒险</t>
+  </si>
+  <si>
+    <t>ventilate</t>
+  </si>
+  <si>
+    <t>通风</t>
+  </si>
+  <si>
+    <t>converge</t>
+  </si>
+  <si>
+    <t>汇合</t>
+  </si>
+  <si>
+    <t>verbal</t>
+  </si>
+  <si>
+    <t>口头</t>
+  </si>
+  <si>
+    <t>empirical</t>
+  </si>
+  <si>
+    <t>经验</t>
+  </si>
+  <si>
+    <t>permeate</t>
+  </si>
+  <si>
+    <t>渗透</t>
+  </si>
+  <si>
+    <t>persecute</t>
+  </si>
+  <si>
+    <t>迫害</t>
+  </si>
+  <si>
+    <t>exempt</t>
+  </si>
+  <si>
+    <t>豁免</t>
+  </si>
+  <si>
+    <t>unit 12</t>
+  </si>
+  <si>
+    <t>单位12</t>
+  </si>
+  <si>
+    <t>scarce</t>
+  </si>
+  <si>
+    <t>稀缺</t>
+  </si>
+  <si>
+    <t>scarcely</t>
+  </si>
+  <si>
+    <t>几乎没有</t>
+  </si>
+  <si>
+    <t>scatter</t>
+  </si>
+  <si>
+    <t>分散</t>
+  </si>
+  <si>
+    <t>scence</t>
+  </si>
+  <si>
+    <t>李宗红</t>
+  </si>
+  <si>
+    <t>scenery</t>
+  </si>
+  <si>
+    <t>风景</t>
+  </si>
+  <si>
+    <t>scent</t>
+  </si>
+  <si>
+    <t>香味</t>
+  </si>
+  <si>
+    <t>acceptance</t>
+  </si>
+  <si>
+    <t>验收</t>
+  </si>
+  <si>
+    <t>accessory</t>
+  </si>
+  <si>
+    <t>附件</t>
+  </si>
+  <si>
+    <t>accidental</t>
+  </si>
+  <si>
+    <t>偶然</t>
+  </si>
+  <si>
+    <t>acclaim</t>
+  </si>
+  <si>
+    <t>欢呼</t>
+  </si>
+  <si>
+    <t>accommodate</t>
+  </si>
+  <si>
+    <t>容纳</t>
+  </si>
+  <si>
+    <t>accommodation</t>
+  </si>
+  <si>
+    <t>住所</t>
+  </si>
+  <si>
+    <t>accord</t>
+  </si>
+  <si>
+    <t>符合</t>
+  </si>
+  <si>
+    <t>accordance</t>
+  </si>
+  <si>
+    <t>根据</t>
+  </si>
+  <si>
+    <t>accordingly</t>
+  </si>
+  <si>
+    <t>于是</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>帐户</t>
+  </si>
+  <si>
+    <t>accountant</t>
+  </si>
+  <si>
+    <t>会计</t>
+  </si>
+  <si>
+    <t>accumulate</t>
+  </si>
+  <si>
+    <t>积累</t>
+  </si>
+  <si>
+    <t>accurate</t>
+  </si>
+  <si>
+    <t>准确</t>
+  </si>
+  <si>
+    <t>accuse</t>
+  </si>
+  <si>
+    <t>告</t>
+  </si>
+  <si>
+    <t>accustomed</t>
+  </si>
+  <si>
+    <t>惯常的</t>
+  </si>
+  <si>
+    <t>escalate</t>
+  </si>
+  <si>
+    <t>升级</t>
+  </si>
+  <si>
+    <t>escort</t>
+  </si>
+  <si>
+    <t>护送</t>
+  </si>
+  <si>
+    <t>essence</t>
+  </si>
+  <si>
+    <t>本质</t>
+  </si>
+  <si>
+    <t>esteem</t>
+  </si>
+  <si>
+    <t>尊重</t>
+  </si>
+  <si>
+    <t>eternal</t>
+  </si>
+  <si>
+    <t>永恒</t>
+  </si>
+  <si>
+    <t>ethnic</t>
+  </si>
+  <si>
+    <t>民族</t>
+  </si>
+  <si>
+    <t>evacuate</t>
+  </si>
+  <si>
+    <t>撤离</t>
+  </si>
+  <si>
+    <t>evade</t>
+  </si>
+  <si>
+    <t>逃避</t>
+  </si>
+  <si>
+    <t>evaporate</t>
+  </si>
+  <si>
+    <t>蒸发</t>
+  </si>
+  <si>
+    <t>faint</t>
+  </si>
+  <si>
+    <t>晕</t>
+  </si>
+  <si>
+    <t>fairly</t>
+  </si>
+  <si>
+    <t>相当</t>
+  </si>
+  <si>
+    <t>fairy</t>
+  </si>
+  <si>
+    <t>仙女</t>
+  </si>
+  <si>
+    <t>fame</t>
+  </si>
+  <si>
+    <t>名誉</t>
+  </si>
+  <si>
+    <t>famine</t>
+  </si>
+  <si>
+    <t>饥荒</t>
+  </si>
+  <si>
+    <t>fancy</t>
+  </si>
+  <si>
+    <t>幻想</t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>付款</t>
+  </si>
+  <si>
+    <t>peasant</t>
+  </si>
+  <si>
+    <t>农</t>
+  </si>
+  <si>
+    <t>pebble</t>
+  </si>
+  <si>
+    <t>卵石</t>
+  </si>
+  <si>
+    <t>peculiar</t>
+  </si>
+  <si>
+    <t>特有</t>
+  </si>
+  <si>
+    <t>pedestrian</t>
+  </si>
+  <si>
+    <t>行人</t>
+  </si>
+  <si>
+    <t>embarrass</t>
+  </si>
+  <si>
+    <t>emigrate</t>
+  </si>
+  <si>
+    <t>移民</t>
+  </si>
+  <si>
+    <t>embody</t>
+  </si>
+  <si>
+    <t>体现</t>
+  </si>
+  <si>
+    <t>unit 13</t>
+  </si>
+  <si>
+    <t>单位13</t>
+  </si>
+  <si>
+    <t>resemble</t>
+  </si>
+  <si>
+    <t>类似</t>
+  </si>
+  <si>
+    <t>resistant</t>
+  </si>
+  <si>
+    <t>耐</t>
+  </si>
+  <si>
+    <t>resolute</t>
+  </si>
+  <si>
+    <t>坚决</t>
+  </si>
+  <si>
+    <t>resolve</t>
+  </si>
+  <si>
+    <t>解决</t>
+  </si>
+  <si>
+    <t>respective</t>
+  </si>
+  <si>
+    <t>各自</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>resolution</t>
+  </si>
+  <si>
+    <t>解析度</t>
+  </si>
+  <si>
+    <t>diligent</t>
+  </si>
+  <si>
+    <t>勤奋</t>
+  </si>
+  <si>
+    <t>dilute</t>
+  </si>
+  <si>
+    <t>稀</t>
+  </si>
+  <si>
+    <t>disastrous</t>
+  </si>
+  <si>
+    <t>惨重</t>
+  </si>
+  <si>
+    <t>discourage</t>
+  </si>
+  <si>
+    <t>不鼓励</t>
+  </si>
+  <si>
+    <t>discrepancy</t>
+  </si>
+  <si>
+    <t>差异</t>
+  </si>
+  <si>
+    <t>disgrace</t>
+  </si>
+  <si>
+    <t>耻辱</t>
+  </si>
+  <si>
+    <t>meditation</t>
+  </si>
+  <si>
+    <t>冥想</t>
+  </si>
+  <si>
+    <t>negligible</t>
+  </si>
+  <si>
+    <t>微不足道</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>负</t>
+  </si>
+  <si>
+    <t>nerve</t>
+  </si>
+  <si>
+    <t>神经</t>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>中性</t>
+  </si>
+  <si>
+    <t>nourish</t>
+  </si>
+  <si>
+    <t>滋养</t>
+  </si>
+  <si>
+    <t>nurture</t>
+  </si>
+  <si>
+    <t>offend</t>
+  </si>
+  <si>
+    <t>得罪</t>
+  </si>
+  <si>
+    <t>norm</t>
+  </si>
+  <si>
+    <t>规范</t>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>抵消</t>
+  </si>
+  <si>
+    <t>discern</t>
+  </si>
+  <si>
+    <t>辨别</t>
+  </si>
+  <si>
+    <t>orient</t>
+  </si>
+  <si>
+    <t>东方</t>
+  </si>
+  <si>
+    <t>orthodox</t>
+  </si>
+  <si>
+    <t>正统</t>
+  </si>
+  <si>
+    <t>outrage</t>
+  </si>
+  <si>
+    <t>暴行</t>
+  </si>
+  <si>
+    <t>repression</t>
+  </si>
+  <si>
+    <t>抑制</t>
+  </si>
+  <si>
+    <t>reptile</t>
+  </si>
+  <si>
+    <t>爬虫</t>
+  </si>
+  <si>
+    <t>reputation</t>
+  </si>
+  <si>
+    <t>声誉</t>
+  </si>
+  <si>
+    <t>reservation</t>
+  </si>
+  <si>
+    <t>reserve</t>
+  </si>
+  <si>
+    <t>scrutiny</t>
+  </si>
+  <si>
+    <t>审查</t>
+  </si>
+  <si>
+    <t>shrewd</t>
+  </si>
+  <si>
+    <t>精明</t>
+  </si>
+  <si>
+    <t>shrink</t>
+  </si>
+  <si>
+    <t>收缩</t>
+  </si>
+  <si>
+    <t>shrug</t>
+  </si>
+  <si>
+    <t>耸</t>
+  </si>
+  <si>
+    <t>skeleton</t>
+  </si>
+  <si>
+    <t>骨架</t>
+  </si>
+  <si>
+    <t>skeptical</t>
+  </si>
+  <si>
+    <t>怀疑的</t>
+  </si>
+  <si>
+    <t>sovereign</t>
+  </si>
+  <si>
+    <t>君主</t>
+  </si>
+  <si>
+    <t>absurd</t>
+  </si>
+  <si>
+    <t>荒诞</t>
+  </si>
+  <si>
+    <t>abundance</t>
+  </si>
+  <si>
+    <t>丰富</t>
+  </si>
+  <si>
+    <t>abuse</t>
+  </si>
+  <si>
+    <t>滥用</t>
+  </si>
+  <si>
+    <t>activate</t>
+  </si>
+  <si>
+    <t>启用</t>
+  </si>
+  <si>
+    <t>defer</t>
+  </si>
+  <si>
+    <t>延缓</t>
+  </si>
+  <si>
+    <t>blossom</t>
+  </si>
+  <si>
+    <t>开花</t>
+  </si>
+  <si>
+    <t>bully</t>
+  </si>
+  <si>
+    <t>欺负</t>
+  </si>
+  <si>
+    <t>bump</t>
+  </si>
+  <si>
+    <t>撞</t>
+  </si>
+  <si>
+    <t>bureaucracy</t>
+  </si>
+  <si>
+    <t>官僚</t>
+  </si>
+  <si>
+    <t>disrupt</t>
+  </si>
+  <si>
+    <t>dwell</t>
+  </si>
+  <si>
+    <t>住</t>
+  </si>
+  <si>
+    <t>unit 14</t>
+  </si>
+  <si>
+    <t>单位14</t>
+  </si>
+  <si>
+    <t>adverse</t>
+  </si>
+  <si>
+    <t>不利的</t>
+  </si>
+  <si>
+    <t>eloquent</t>
+  </si>
+  <si>
+    <t>雄辩</t>
+  </si>
+  <si>
+    <t>embark</t>
+  </si>
+  <si>
+    <t>从事</t>
+  </si>
+  <si>
+    <t>eminent</t>
+  </si>
+  <si>
+    <t>杰出</t>
+  </si>
+  <si>
+    <t>envisage</t>
+  </si>
+  <si>
+    <t>设想</t>
+  </si>
+  <si>
+    <t>epidemic</t>
+  </si>
+  <si>
+    <t>疫情</t>
+  </si>
+  <si>
+    <t>plunge</t>
+  </si>
+  <si>
+    <t>跳水</t>
+  </si>
+  <si>
+    <t>possess</t>
+  </si>
+  <si>
+    <t>具有</t>
+  </si>
+  <si>
+    <t>precede</t>
+  </si>
+  <si>
+    <t>优于</t>
+  </si>
+  <si>
+    <t>rally</t>
+  </si>
+  <si>
+    <t>rational</t>
+  </si>
+  <si>
+    <t>合理的</t>
+  </si>
+  <si>
+    <t>render</t>
+  </si>
+  <si>
+    <t>给予</t>
+  </si>
+  <si>
+    <t>repel</t>
+  </si>
+  <si>
+    <t>击退</t>
+  </si>
+  <si>
+    <t>resultant</t>
+  </si>
+  <si>
+    <t>结果</t>
+  </si>
+  <si>
+    <t>retain</t>
+  </si>
+  <si>
+    <t>robust</t>
+  </si>
+  <si>
+    <t>强大的</t>
+  </si>
+  <si>
+    <t>sprinkle</t>
+  </si>
+  <si>
+    <t>洒</t>
+  </si>
+  <si>
+    <t>stake</t>
+  </si>
+  <si>
+    <t>赌注</t>
+  </si>
+  <si>
+    <t>standpoint</t>
+  </si>
+  <si>
+    <t>立场</t>
+  </si>
+  <si>
+    <t>startle</t>
+  </si>
+  <si>
+    <t>惊吓</t>
+  </si>
+  <si>
+    <t>statistical</t>
+  </si>
+  <si>
+    <t>统计</t>
+  </si>
+  <si>
+    <t>statute</t>
+  </si>
+  <si>
+    <t>法令</t>
+  </si>
+  <si>
+    <t>stimulate</t>
+  </si>
+  <si>
+    <t>刺激</t>
+  </si>
+  <si>
+    <t>trait</t>
+  </si>
+  <si>
+    <t>特征</t>
+  </si>
+  <si>
+    <t>tramp</t>
+  </si>
+  <si>
+    <t>流浪汉</t>
+  </si>
+  <si>
+    <t>unanimous</t>
+  </si>
+  <si>
+    <t>一致</t>
+  </si>
+  <si>
+    <t>ultimate</t>
+  </si>
+  <si>
+    <t>最终</t>
+  </si>
+  <si>
+    <t>unfold</t>
+  </si>
+  <si>
+    <t>展开</t>
+  </si>
+  <si>
+    <t>vital</t>
+  </si>
+  <si>
+    <t>重要</t>
+  </si>
+  <si>
+    <t>virtual</t>
+  </si>
+  <si>
+    <t>虚拟</t>
+  </si>
+  <si>
+    <t>virtue</t>
+  </si>
+  <si>
+    <t>美德</t>
+  </si>
+  <si>
+    <t>wicked</t>
+  </si>
+  <si>
+    <t>邪恶</t>
+  </si>
+  <si>
+    <t>realm</t>
+  </si>
+  <si>
+    <t>领域</t>
+  </si>
+  <si>
+    <t>fertilizer</t>
+  </si>
+  <si>
+    <t>肥料</t>
+  </si>
+  <si>
+    <t>fetch</t>
+  </si>
+  <si>
+    <t>取</t>
+  </si>
+  <si>
+    <t>feudal</t>
+  </si>
+  <si>
+    <t>封建</t>
+  </si>
+  <si>
+    <t>fluctuate</t>
+  </si>
+  <si>
+    <t>波动</t>
+  </si>
+  <si>
+    <t>exclaim</t>
+  </si>
+  <si>
+    <t>喊叫</t>
+  </si>
+  <si>
+    <t>expertise</t>
+  </si>
+  <si>
+    <t>专门知识</t>
+  </si>
+  <si>
+    <t>unit 15</t>
+  </si>
+  <si>
+    <t>单位15</t>
+  </si>
+  <si>
+    <t>spontaneous</t>
+  </si>
+  <si>
+    <t>自发</t>
+  </si>
+  <si>
+    <t>spouse</t>
+  </si>
+  <si>
+    <t>伴侣</t>
+  </si>
+  <si>
+    <t>surpass</t>
+  </si>
+  <si>
+    <t>surplus</t>
+  </si>
+  <si>
+    <t>剩余</t>
+  </si>
+  <si>
+    <t>survey</t>
+  </si>
+  <si>
+    <t>调查</t>
+  </si>
+  <si>
+    <t>mold</t>
+  </si>
+  <si>
+    <t>模子</t>
+  </si>
+  <si>
+    <t>motivate</t>
+  </si>
+  <si>
+    <t>mutual</t>
+  </si>
+  <si>
+    <t>相互</t>
+  </si>
+  <si>
+    <t>nuisance</t>
+  </si>
+  <si>
+    <t>滋扰</t>
+  </si>
+  <si>
+    <t>obedience</t>
+  </si>
+  <si>
+    <t>服从</t>
+  </si>
+  <si>
+    <t>oblige</t>
+  </si>
+  <si>
+    <t>责成</t>
+  </si>
+  <si>
+    <t>obscure</t>
+  </si>
+  <si>
+    <t>朦胧</t>
+  </si>
+  <si>
+    <t>obsession</t>
+  </si>
+  <si>
+    <t>obsolete</t>
+  </si>
+  <si>
+    <t>过时的</t>
+  </si>
+  <si>
+    <t>optimistic</t>
+  </si>
+  <si>
+    <t>乐观</t>
+  </si>
+  <si>
+    <t>optimum</t>
+  </si>
+  <si>
+    <t>最佳</t>
+  </si>
+  <si>
+    <t>primitive</t>
+  </si>
+  <si>
+    <t>原始</t>
+  </si>
+  <si>
+    <t>prominent</t>
+  </si>
+  <si>
+    <t>突出</t>
+  </si>
+  <si>
+    <t>stamp</t>
+  </si>
+  <si>
+    <t>邮票</t>
+  </si>
+  <si>
+    <t>stoop</t>
+  </si>
+  <si>
+    <t>哈腰</t>
+  </si>
+  <si>
+    <t>strive</t>
+  </si>
+  <si>
+    <t>substantial</t>
+  </si>
+  <si>
+    <t>大量的</t>
+  </si>
+  <si>
+    <t>tangle</t>
+  </si>
+  <si>
+    <t>纠纷</t>
+  </si>
+  <si>
+    <t>thesis</t>
+  </si>
+  <si>
+    <t>论文</t>
+  </si>
+  <si>
+    <t>tribe</t>
+  </si>
+  <si>
+    <t>部落</t>
+  </si>
+  <si>
+    <t>vanity</t>
+  </si>
+  <si>
+    <t>虚荣</t>
+  </si>
+  <si>
+    <t>vanish</t>
+  </si>
+  <si>
+    <t>消失</t>
+  </si>
+  <si>
+    <t>violate</t>
+  </si>
+  <si>
+    <t>违反</t>
+  </si>
+  <si>
+    <t>vulgar</t>
+  </si>
+  <si>
+    <t>庸俗</t>
+  </si>
+  <si>
+    <t>intrigue</t>
+  </si>
+  <si>
+    <t>诡计</t>
+  </si>
+  <si>
+    <t>admission</t>
+  </si>
+  <si>
+    <t>入场</t>
+  </si>
+  <si>
+    <t>bizarre</t>
+  </si>
+  <si>
+    <t>奇异的</t>
+  </si>
+  <si>
+    <t>blunt</t>
+  </si>
+  <si>
+    <t>钝</t>
+  </si>
+  <si>
+    <t>catastrophe</t>
+  </si>
+  <si>
+    <t>灾难</t>
+  </si>
+  <si>
+    <t>pierce</t>
+  </si>
+  <si>
+    <t>刺穿</t>
+  </si>
+  <si>
+    <t>plausible</t>
+  </si>
+  <si>
+    <t>似是而非</t>
+  </si>
+  <si>
+    <t>predecessor</t>
+  </si>
+  <si>
+    <t>前任</t>
+  </si>
+  <si>
+    <t>preserve</t>
+  </si>
+  <si>
+    <t>reluctant</t>
+  </si>
+  <si>
+    <t>不情愿</t>
+  </si>
+  <si>
+    <t>saddle</t>
+  </si>
+  <si>
+    <t>鞍</t>
+  </si>
+  <si>
+    <t>unit 16</t>
+  </si>
+  <si>
+    <t>单位16</t>
+  </si>
+  <si>
+    <t>stumble</t>
+  </si>
+  <si>
+    <t>绊倒</t>
+  </si>
+  <si>
+    <t>substance</t>
+  </si>
+  <si>
+    <t>物质</t>
+  </si>
+  <si>
+    <t>subtract</t>
+  </si>
+  <si>
+    <t>减去</t>
+  </si>
+  <si>
+    <t>suffice</t>
+  </si>
+  <si>
+    <t>满足</t>
+  </si>
+  <si>
+    <t>suppress</t>
+  </si>
+  <si>
+    <t>压制</t>
+  </si>
+  <si>
+    <t>tackle</t>
+  </si>
+  <si>
+    <t>滑车</t>
+  </si>
+  <si>
+    <t>thorough</t>
+  </si>
+  <si>
+    <t>彻底</t>
+  </si>
+  <si>
+    <t>sprout</t>
+  </si>
+  <si>
+    <t>发芽</t>
+  </si>
+  <si>
+    <t>statue</t>
+  </si>
+  <si>
+    <t>雕像</t>
+  </si>
+  <si>
+    <t>slim</t>
+  </si>
+  <si>
+    <t>瘦</t>
+  </si>
+  <si>
+    <t>furious</t>
+  </si>
+  <si>
+    <t>狂怒</t>
+  </si>
+  <si>
+    <t>gauge</t>
+  </si>
+  <si>
+    <t>规</t>
+  </si>
+  <si>
+    <t>protest</t>
+  </si>
+  <si>
+    <t>抗议</t>
+  </si>
+  <si>
+    <t>ascend</t>
+  </si>
+  <si>
+    <t>登</t>
+  </si>
+  <si>
+    <t>generate</t>
+  </si>
+  <si>
+    <t>生成</t>
+  </si>
+  <si>
+    <t>generalize</t>
+  </si>
+  <si>
+    <t>概括</t>
+  </si>
+  <si>
+    <t>genetic</t>
+  </si>
+  <si>
+    <t>遗传</t>
+  </si>
+  <si>
+    <t>suspect</t>
+  </si>
+  <si>
+    <t>疑似</t>
+  </si>
+  <si>
+    <t>sympathize</t>
+  </si>
+  <si>
+    <t>同情</t>
+  </si>
+  <si>
+    <t>pursue</t>
+  </si>
+  <si>
+    <t>brace</t>
+  </si>
+  <si>
+    <t>支撑</t>
+  </si>
+  <si>
+    <t>senate</t>
+  </si>
+  <si>
+    <t>参议院</t>
+  </si>
+  <si>
+    <t>genuine</t>
+  </si>
+  <si>
+    <t>真正</t>
+  </si>
+  <si>
+    <t>haul</t>
+  </si>
+  <si>
+    <t>运输</t>
+  </si>
+  <si>
+    <t>propel</t>
+  </si>
+  <si>
+    <t>推进</t>
+  </si>
+  <si>
+    <t>tedious</t>
+  </si>
+  <si>
+    <t>乏味</t>
+  </si>
+  <si>
+    <t>portray</t>
+  </si>
+  <si>
+    <t>写真</t>
+  </si>
+  <si>
+    <t>queer</t>
+  </si>
+  <si>
+    <t>同性恋者</t>
+  </si>
+  <si>
+    <t>spiral</t>
+  </si>
+  <si>
+    <t>螺旋</t>
+  </si>
+  <si>
+    <t>sketch</t>
+  </si>
+  <si>
+    <t>草图</t>
+  </si>
+  <si>
+    <t>stale</t>
+  </si>
+  <si>
+    <t>陈旧</t>
+  </si>
+  <si>
+    <t>fertile</t>
+  </si>
+  <si>
+    <t>沃</t>
+  </si>
+  <si>
+    <t>prosper</t>
+  </si>
+  <si>
+    <t>繁荣</t>
+  </si>
+  <si>
+    <t>tilt</t>
+  </si>
+  <si>
+    <t>倾斜</t>
+  </si>
+  <si>
+    <t>assassinate</t>
+  </si>
+  <si>
+    <t>暗杀</t>
+  </si>
+  <si>
+    <t>refine</t>
+  </si>
+  <si>
+    <t>提炼</t>
+  </si>
+  <si>
+    <t>siege</t>
+  </si>
+  <si>
+    <t>围城</t>
+  </si>
+  <si>
+    <t>haste</t>
+  </si>
+  <si>
+    <t>赶快</t>
+  </si>
+  <si>
+    <t>prevail</t>
+  </si>
+  <si>
+    <t>战胜</t>
+  </si>
+  <si>
+    <t>rhythm</t>
+  </si>
+  <si>
+    <t>韵律</t>
+  </si>
+  <si>
+    <t>glamour</t>
+  </si>
+  <si>
+    <t>魅力</t>
+  </si>
+  <si>
+    <t>prohibit</t>
+  </si>
+  <si>
+    <t>禁止</t>
+  </si>
+  <si>
+    <t>rouse</t>
+  </si>
+  <si>
+    <t>唤醒</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>分配</t>
+  </si>
+  <si>
+    <t>remnant</t>
+  </si>
+  <si>
+    <t>剩</t>
+  </si>
+  <si>
+    <t>gracious</t>
+  </si>
+  <si>
+    <t>亲切</t>
+  </si>
+  <si>
+    <t>gross</t>
+  </si>
+  <si>
+    <t>毛</t>
+  </si>
+  <si>
+    <t>harassment</t>
+  </si>
+  <si>
+    <t>骚扰</t>
+  </si>
+  <si>
+    <t>rescue</t>
+  </si>
+  <si>
+    <t>拯救</t>
+  </si>
+  <si>
+    <t>restrain</t>
+  </si>
+  <si>
+    <t>sacrifice</t>
+  </si>
+  <si>
+    <t>牺牲</t>
+  </si>
+  <si>
+    <t>unit 17</t>
+  </si>
+  <si>
+    <t>单位17</t>
+  </si>
+  <si>
+    <t>flush</t>
+  </si>
+  <si>
+    <t>红晕</t>
+  </si>
+  <si>
+    <t>patent</t>
+  </si>
+  <si>
+    <t>专利</t>
+  </si>
+  <si>
+    <t>authority</t>
+  </si>
+  <si>
+    <t>权威</t>
+  </si>
+  <si>
+    <t>counterpart</t>
+  </si>
+  <si>
+    <t>对方</t>
+  </si>
+  <si>
+    <t>crawl</t>
+  </si>
+  <si>
+    <t>爬行</t>
+  </si>
+  <si>
+    <t>criterion</t>
+  </si>
+  <si>
+    <t>标准</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>十进制</t>
+  </si>
+  <si>
+    <t>depict</t>
+  </si>
+  <si>
+    <t>描绘</t>
+  </si>
+  <si>
+    <t>masculine</t>
+  </si>
+  <si>
+    <t>男性</t>
+  </si>
+  <si>
+    <t>obstacle</t>
+  </si>
+  <si>
+    <t>障碍</t>
+  </si>
+  <si>
+    <t>doctrine</t>
+  </si>
+  <si>
+    <t>教义</t>
+  </si>
+  <si>
+    <t>domestic</t>
+  </si>
+  <si>
+    <t>国内</t>
+  </si>
+  <si>
+    <t>duplicate</t>
+  </si>
+  <si>
+    <t>重复</t>
+  </si>
+  <si>
+    <t>eccentric</t>
+  </si>
+  <si>
+    <t>偏心</t>
+  </si>
+  <si>
+    <t>mist</t>
+  </si>
+  <si>
+    <t>薄雾</t>
+  </si>
+  <si>
+    <t>eligible</t>
+  </si>
+  <si>
+    <t>合格</t>
+  </si>
+  <si>
+    <t>elaborate</t>
+  </si>
+  <si>
+    <t>阐述</t>
+  </si>
+  <si>
+    <t>appraisal</t>
+  </si>
+  <si>
+    <t>评价</t>
+  </si>
+  <si>
+    <t>moan</t>
+  </si>
+  <si>
+    <t>呻吟</t>
+  </si>
+  <si>
+    <t>stride</t>
+  </si>
+  <si>
+    <t>迈</t>
+  </si>
+  <si>
+    <t>plateau</t>
+  </si>
+  <si>
+    <t>高原</t>
+  </si>
+  <si>
+    <t>cordial</t>
+  </si>
+  <si>
+    <t>corridor</t>
+  </si>
+  <si>
+    <t>走廊</t>
+  </si>
+  <si>
+    <t>tragic</t>
+  </si>
+  <si>
+    <t>artistic</t>
+  </si>
+  <si>
+    <t>艺术的</t>
+  </si>
+  <si>
+    <t>counsel</t>
+  </si>
+  <si>
+    <t>法律顾问</t>
+  </si>
+  <si>
+    <t>coward</t>
+  </si>
+  <si>
+    <t>懦夫</t>
+  </si>
+  <si>
+    <t>stretch</t>
+  </si>
+  <si>
+    <t>伸展</t>
+  </si>
+  <si>
+    <t>subsidy</t>
+  </si>
+  <si>
+    <t>补贴</t>
+  </si>
+  <si>
+    <t>physician</t>
+  </si>
+  <si>
+    <t>医师</t>
+  </si>
+  <si>
+    <t>strengthen</t>
+  </si>
+  <si>
+    <t>加强</t>
+  </si>
+  <si>
+    <t>bleak</t>
+  </si>
+  <si>
+    <t>苍凉</t>
+  </si>
+  <si>
+    <t>ashore</t>
+  </si>
+  <si>
+    <t>岸上</t>
+  </si>
+  <si>
+    <t>blunder</t>
+  </si>
+  <si>
+    <t>错误</t>
+  </si>
+  <si>
+    <t>tribute</t>
+  </si>
+  <si>
+    <t>贡</t>
+  </si>
+  <si>
+    <t>trivial</t>
+  </si>
+  <si>
+    <t>不重要的</t>
+  </si>
+  <si>
+    <t>coincidence</t>
+  </si>
+  <si>
+    <t>巧合</t>
+  </si>
+  <si>
+    <t>suburb</t>
+  </si>
+  <si>
+    <t>市郊</t>
+  </si>
+  <si>
+    <t>latent</t>
+  </si>
+  <si>
+    <t>潜</t>
   </si>
 </sst>
 </file>
@@ -1298,12 +4208,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1319,10 +4229,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1335,6 +4246,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1342,14 +4276,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1357,6 +4284,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1372,16 +4307,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1393,62 +4358,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1461,14 +4372,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1479,7 +4382,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1491,19 +4442,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1515,13 +4502,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1539,127 +4556,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1676,38 +4579,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1729,20 +4613,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1751,7 +4639,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1770,153 +4658,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2275,15 +5178,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B217"/>
+  <dimension ref="A1:B713"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="D158" sqref="D158"/>
+    <sheetView tabSelected="1" topLeftCell="D124" workbookViewId="0">
+      <selection activeCell="C378" sqref="C378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="11.6" customWidth="1"/>
+    <col min="1" max="1" width="12.8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:2">
@@ -4014,7 +6917,3982 @@
         <v>424</v>
       </c>
     </row>
-    <row r="217" ht="15" customHeight="1"/>
+    <row r="217" ht="15" customHeight="1" spans="1:2">
+      <c r="A217" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B217" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="218" ht="15" customHeight="1" spans="1:2">
+      <c r="A218" t="s">
+        <v>427</v>
+      </c>
+      <c r="B218" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="219" ht="15" customHeight="1" spans="1:2">
+      <c r="A219" t="s">
+        <v>429</v>
+      </c>
+      <c r="B219" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="220" ht="15" customHeight="1" spans="1:2">
+      <c r="A220" t="s">
+        <v>431</v>
+      </c>
+      <c r="B220" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="221" ht="15" customHeight="1" spans="1:2">
+      <c r="A221" t="s">
+        <v>433</v>
+      </c>
+      <c r="B221" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="222" ht="15" customHeight="1" spans="1:2">
+      <c r="A222" t="s">
+        <v>435</v>
+      </c>
+      <c r="B222" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="223" ht="15" customHeight="1" spans="1:2">
+      <c r="A223" t="s">
+        <v>437</v>
+      </c>
+      <c r="B223" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="224" ht="15" customHeight="1" spans="1:2">
+      <c r="A224" t="s">
+        <v>439</v>
+      </c>
+      <c r="B224" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="225" ht="15" customHeight="1" spans="1:2">
+      <c r="A225" t="s">
+        <v>441</v>
+      </c>
+      <c r="B225" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="226" ht="15" customHeight="1" spans="1:2">
+      <c r="A226" t="s">
+        <v>443</v>
+      </c>
+      <c r="B226" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="227" ht="15" customHeight="1" spans="1:2">
+      <c r="A227" t="s">
+        <v>445</v>
+      </c>
+      <c r="B227" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="228" ht="15" customHeight="1" spans="1:2">
+      <c r="A228" t="s">
+        <v>447</v>
+      </c>
+      <c r="B228" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="229" ht="15" customHeight="1" spans="1:2">
+      <c r="A229" t="s">
+        <v>449</v>
+      </c>
+      <c r="B229" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="230" ht="15" customHeight="1" spans="1:2">
+      <c r="A230" t="s">
+        <v>451</v>
+      </c>
+      <c r="B230" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="231" ht="15" customHeight="1" spans="1:2">
+      <c r="A231" t="s">
+        <v>453</v>
+      </c>
+      <c r="B231" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="232" ht="15" customHeight="1" spans="1:2">
+      <c r="A232" t="s">
+        <v>455</v>
+      </c>
+      <c r="B232" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="233" ht="15" customHeight="1" spans="1:2">
+      <c r="A233" t="s">
+        <v>457</v>
+      </c>
+      <c r="B233" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="234" ht="15" customHeight="1" spans="1:2">
+      <c r="A234" t="s">
+        <v>459</v>
+      </c>
+      <c r="B234" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="235" ht="15" customHeight="1" spans="1:2">
+      <c r="A235" t="s">
+        <v>461</v>
+      </c>
+      <c r="B235" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="236" ht="15" customHeight="1" spans="1:2">
+      <c r="A236" t="s">
+        <v>463</v>
+      </c>
+      <c r="B236" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="237" ht="15" customHeight="1" spans="1:2">
+      <c r="A237" t="s">
+        <v>465</v>
+      </c>
+      <c r="B237" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="238" ht="15" customHeight="1" spans="1:2">
+      <c r="A238" t="s">
+        <v>467</v>
+      </c>
+      <c r="B238" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="239" ht="15" customHeight="1" spans="1:2">
+      <c r="A239" t="s">
+        <v>469</v>
+      </c>
+      <c r="B239" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="240" ht="15" customHeight="1" spans="1:2">
+      <c r="A240" t="s">
+        <v>471</v>
+      </c>
+      <c r="B240" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="241" ht="15" customHeight="1" spans="1:2">
+      <c r="A241" t="s">
+        <v>473</v>
+      </c>
+      <c r="B241" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="242" ht="15" customHeight="1" spans="1:2">
+      <c r="A242" t="s">
+        <v>475</v>
+      </c>
+      <c r="B242" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="243" ht="15" customHeight="1" spans="1:2">
+      <c r="A243" t="s">
+        <v>477</v>
+      </c>
+      <c r="B243" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="244" ht="15" customHeight="1" spans="1:2">
+      <c r="A244" t="s">
+        <v>479</v>
+      </c>
+      <c r="B244" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="245" ht="15" customHeight="1" spans="1:2">
+      <c r="A245" t="s">
+        <v>480</v>
+      </c>
+      <c r="B245" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="246" ht="15" customHeight="1" spans="1:2">
+      <c r="A246" t="s">
+        <v>482</v>
+      </c>
+      <c r="B246" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="247" ht="15" customHeight="1" spans="1:2">
+      <c r="A247" t="s">
+        <v>484</v>
+      </c>
+      <c r="B247" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="248" ht="15" customHeight="1" spans="1:2">
+      <c r="A248" t="s">
+        <v>486</v>
+      </c>
+      <c r="B248" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="249" ht="15" customHeight="1" spans="1:2">
+      <c r="A249" t="s">
+        <v>488</v>
+      </c>
+      <c r="B249" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="250" ht="15" customHeight="1" spans="1:2">
+      <c r="A250" t="s">
+        <v>490</v>
+      </c>
+      <c r="B250" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="251" ht="15" customHeight="1" spans="1:2">
+      <c r="A251" t="s">
+        <v>492</v>
+      </c>
+      <c r="B251" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="252" ht="15" customHeight="1" spans="1:2">
+      <c r="A252" t="s">
+        <v>494</v>
+      </c>
+      <c r="B252" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="253" ht="15" customHeight="1" spans="1:2">
+      <c r="A253" t="s">
+        <v>496</v>
+      </c>
+      <c r="B253" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="254" ht="15" customHeight="1" spans="1:2">
+      <c r="A254" t="s">
+        <v>498</v>
+      </c>
+      <c r="B254" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="255" ht="15" customHeight="1" spans="1:2">
+      <c r="A255" t="s">
+        <v>500</v>
+      </c>
+      <c r="B255" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="256" ht="15" customHeight="1" spans="1:2">
+      <c r="A256" t="s">
+        <v>502</v>
+      </c>
+      <c r="B256" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="257" ht="15" customHeight="1" spans="1:2">
+      <c r="A257" t="s">
+        <v>504</v>
+      </c>
+      <c r="B257" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="258" ht="15" customHeight="1" spans="1:2">
+      <c r="A258" t="s">
+        <v>506</v>
+      </c>
+      <c r="B258" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="259" ht="15" customHeight="1" spans="1:2">
+      <c r="A259" t="s">
+        <v>508</v>
+      </c>
+      <c r="B259" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="260" ht="15" customHeight="1" spans="1:2">
+      <c r="A260" t="s">
+        <v>510</v>
+      </c>
+      <c r="B260" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="261" ht="15" customHeight="1" spans="1:2">
+      <c r="A261" t="s">
+        <v>512</v>
+      </c>
+      <c r="B261" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="262" ht="15" customHeight="1" spans="1:2">
+      <c r="A262" t="s">
+        <v>514</v>
+      </c>
+      <c r="B262" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="263" ht="15" customHeight="1" spans="1:2">
+      <c r="A263" t="s">
+        <v>516</v>
+      </c>
+      <c r="B263" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="264" ht="15" customHeight="1" spans="1:2">
+      <c r="A264" t="s">
+        <v>518</v>
+      </c>
+      <c r="B264" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1" spans="1:2">
+      <c r="A265" t="s">
+        <v>520</v>
+      </c>
+      <c r="B265" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1" spans="1:2">
+      <c r="A266" t="s">
+        <v>522</v>
+      </c>
+      <c r="B266" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1" spans="1:2">
+      <c r="A267" t="s">
+        <v>524</v>
+      </c>
+      <c r="B267" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1" spans="1:2">
+      <c r="A268" t="s">
+        <v>526</v>
+      </c>
+      <c r="B268" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1" spans="1:2">
+      <c r="A269" t="s">
+        <v>528</v>
+      </c>
+      <c r="B269" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1" spans="1:2">
+      <c r="A270" t="s">
+        <v>530</v>
+      </c>
+      <c r="B270" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1" spans="1:2">
+      <c r="A271" t="s">
+        <v>532</v>
+      </c>
+      <c r="B271" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1" spans="1:2">
+      <c r="A272" t="s">
+        <v>534</v>
+      </c>
+      <c r="B272" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1" spans="1:2">
+      <c r="A273" t="s">
+        <v>536</v>
+      </c>
+      <c r="B273" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1" spans="1:2">
+      <c r="A274" t="s">
+        <v>538</v>
+      </c>
+      <c r="B274" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1" spans="1:2">
+      <c r="A275" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B275" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1" spans="1:2">
+      <c r="A276" t="s">
+        <v>542</v>
+      </c>
+      <c r="B276" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1" spans="1:2">
+      <c r="A277" t="s">
+        <v>544</v>
+      </c>
+      <c r="B277" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1" spans="1:2">
+      <c r="A278" t="s">
+        <v>546</v>
+      </c>
+      <c r="B278" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1" spans="1:2">
+      <c r="A279" t="s">
+        <v>548</v>
+      </c>
+      <c r="B279" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1" spans="1:2">
+      <c r="A280" t="s">
+        <v>550</v>
+      </c>
+      <c r="B280" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1" spans="1:2">
+      <c r="A281" t="s">
+        <v>552</v>
+      </c>
+      <c r="B281" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1" spans="1:2">
+      <c r="A282" t="s">
+        <v>554</v>
+      </c>
+      <c r="B282" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1" spans="1:2">
+      <c r="A283" t="s">
+        <v>556</v>
+      </c>
+      <c r="B283" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1" spans="1:2">
+      <c r="A284" t="s">
+        <v>558</v>
+      </c>
+      <c r="B284" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1" spans="1:2">
+      <c r="A285" t="s">
+        <v>559</v>
+      </c>
+      <c r="B285" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1" spans="1:2">
+      <c r="A286" t="s">
+        <v>561</v>
+      </c>
+      <c r="B286" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1" spans="1:2">
+      <c r="A287" t="s">
+        <v>563</v>
+      </c>
+      <c r="B287" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1" spans="1:2">
+      <c r="A288" t="s">
+        <v>565</v>
+      </c>
+      <c r="B288" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1" spans="1:2">
+      <c r="A289" t="s">
+        <v>567</v>
+      </c>
+      <c r="B289" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1" spans="1:2">
+      <c r="A290" t="s">
+        <v>569</v>
+      </c>
+      <c r="B290" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1" spans="1:2">
+      <c r="A291" t="s">
+        <v>570</v>
+      </c>
+      <c r="B291" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1" spans="1:2">
+      <c r="A292" t="s">
+        <v>572</v>
+      </c>
+      <c r="B292" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1" spans="1:2">
+      <c r="A293" t="s">
+        <v>574</v>
+      </c>
+      <c r="B293" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1" spans="1:2">
+      <c r="A294" t="s">
+        <v>576</v>
+      </c>
+      <c r="B294" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1" spans="1:2">
+      <c r="A295" t="s">
+        <v>578</v>
+      </c>
+      <c r="B295" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1" spans="1:2">
+      <c r="A296" t="s">
+        <v>580</v>
+      </c>
+      <c r="B296" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1" spans="1:2">
+      <c r="A297" t="s">
+        <v>582</v>
+      </c>
+      <c r="B297" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1" spans="1:2">
+      <c r="A298" t="s">
+        <v>584</v>
+      </c>
+      <c r="B298" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1" spans="1:2">
+      <c r="A299" t="s">
+        <v>586</v>
+      </c>
+      <c r="B299" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1" spans="1:2">
+      <c r="A300" t="s">
+        <v>588</v>
+      </c>
+      <c r="B300" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1" spans="1:2">
+      <c r="A301" t="s">
+        <v>590</v>
+      </c>
+      <c r="B301" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1" spans="1:2">
+      <c r="A302" t="s">
+        <v>592</v>
+      </c>
+      <c r="B302" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1" spans="1:2">
+      <c r="A303" t="s">
+        <v>594</v>
+      </c>
+      <c r="B303" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1" spans="1:2">
+      <c r="A304" t="s">
+        <v>596</v>
+      </c>
+      <c r="B304" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1" spans="1:2">
+      <c r="A305" t="s">
+        <v>598</v>
+      </c>
+      <c r="B305" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1" spans="1:2">
+      <c r="A306" t="s">
+        <v>600</v>
+      </c>
+      <c r="B306" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1" spans="1:2">
+      <c r="A307" t="s">
+        <v>602</v>
+      </c>
+      <c r="B307" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1" spans="1:2">
+      <c r="A308" t="s">
+        <v>604</v>
+      </c>
+      <c r="B308" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1" spans="1:2">
+      <c r="A309" t="s">
+        <v>606</v>
+      </c>
+      <c r="B309" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1" spans="1:2">
+      <c r="A310" t="s">
+        <v>608</v>
+      </c>
+      <c r="B310" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1" spans="1:2">
+      <c r="A311" t="s">
+        <v>610</v>
+      </c>
+      <c r="B311" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1" spans="1:2">
+      <c r="A312" t="s">
+        <v>612</v>
+      </c>
+      <c r="B312" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1" spans="1:2">
+      <c r="A313" t="s">
+        <v>614</v>
+      </c>
+      <c r="B313" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1" spans="1:2">
+      <c r="A314" t="s">
+        <v>616</v>
+      </c>
+      <c r="B314" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1" spans="1:2">
+      <c r="A315" t="s">
+        <v>618</v>
+      </c>
+      <c r="B315" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1" spans="1:2">
+      <c r="A316" t="s">
+        <v>620</v>
+      </c>
+      <c r="B316" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1" spans="1:2">
+      <c r="A317" t="s">
+        <v>622</v>
+      </c>
+      <c r="B317" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1" spans="1:2">
+      <c r="A318" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B318" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1" spans="1:2">
+      <c r="A319" t="s">
+        <v>626</v>
+      </c>
+      <c r="B319" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1" spans="1:2">
+      <c r="A320" t="s">
+        <v>628</v>
+      </c>
+      <c r="B320" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1" spans="1:2">
+      <c r="A321" t="s">
+        <v>630</v>
+      </c>
+      <c r="B321" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1" spans="1:2">
+      <c r="A322" t="s">
+        <v>632</v>
+      </c>
+      <c r="B322" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1" spans="1:2">
+      <c r="A323" t="s">
+        <v>634</v>
+      </c>
+      <c r="B323" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1" spans="1:2">
+      <c r="A324" t="s">
+        <v>636</v>
+      </c>
+      <c r="B324" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1" spans="1:2">
+      <c r="A325" t="s">
+        <v>638</v>
+      </c>
+      <c r="B325" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1" spans="1:2">
+      <c r="A326" t="s">
+        <v>640</v>
+      </c>
+      <c r="B326" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1" spans="1:2">
+      <c r="A327" t="s">
+        <v>642</v>
+      </c>
+      <c r="B327" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1" spans="1:2">
+      <c r="A328" t="s">
+        <v>644</v>
+      </c>
+      <c r="B328" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1" spans="1:2">
+      <c r="A329" t="s">
+        <v>646</v>
+      </c>
+      <c r="B329" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1" spans="1:2">
+      <c r="A330" t="s">
+        <v>648</v>
+      </c>
+      <c r="B330" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1" spans="1:2">
+      <c r="A331" t="s">
+        <v>650</v>
+      </c>
+      <c r="B331" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1" spans="1:2">
+      <c r="A332" t="s">
+        <v>652</v>
+      </c>
+      <c r="B332" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1" spans="1:2">
+      <c r="A333" t="s">
+        <v>654</v>
+      </c>
+      <c r="B333" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1" spans="1:2">
+      <c r="A334" t="s">
+        <v>656</v>
+      </c>
+      <c r="B334" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1" spans="1:2">
+      <c r="A335" t="s">
+        <v>658</v>
+      </c>
+      <c r="B335" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1" spans="1:2">
+      <c r="A336" t="s">
+        <v>660</v>
+      </c>
+      <c r="B336" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1" spans="1:2">
+      <c r="A337" t="s">
+        <v>662</v>
+      </c>
+      <c r="B337" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1" spans="1:2">
+      <c r="A338" t="s">
+        <v>664</v>
+      </c>
+      <c r="B338" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1" spans="1:2">
+      <c r="A339" t="s">
+        <v>666</v>
+      </c>
+      <c r="B339" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1" spans="1:2">
+      <c r="A340" t="s">
+        <v>668</v>
+      </c>
+      <c r="B340" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1" spans="1:2">
+      <c r="A341" t="s">
+        <v>669</v>
+      </c>
+      <c r="B341" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1" spans="1:2">
+      <c r="A342" t="s">
+        <v>671</v>
+      </c>
+      <c r="B342" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1" spans="1:2">
+      <c r="A343" t="s">
+        <v>673</v>
+      </c>
+      <c r="B343" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1" spans="1:2">
+      <c r="A344" t="s">
+        <v>675</v>
+      </c>
+      <c r="B344" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1" spans="1:2">
+      <c r="A345" t="s">
+        <v>677</v>
+      </c>
+      <c r="B345" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1" spans="1:2">
+      <c r="A346" t="s">
+        <v>679</v>
+      </c>
+      <c r="B346" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1" spans="1:2">
+      <c r="A347" t="s">
+        <v>681</v>
+      </c>
+      <c r="B347" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1" spans="1:2">
+      <c r="A348" t="s">
+        <v>683</v>
+      </c>
+      <c r="B348" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1" spans="1:2">
+      <c r="A349" t="s">
+        <v>685</v>
+      </c>
+      <c r="B349" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1" spans="1:2">
+      <c r="A350" t="s">
+        <v>687</v>
+      </c>
+      <c r="B350" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1" spans="1:2">
+      <c r="A351" t="s">
+        <v>689</v>
+      </c>
+      <c r="B351" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1" spans="1:2">
+      <c r="A352" t="s">
+        <v>690</v>
+      </c>
+      <c r="B352" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1" spans="1:2">
+      <c r="A353" t="s">
+        <v>692</v>
+      </c>
+      <c r="B353" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1" spans="1:2">
+      <c r="A354" t="s">
+        <v>694</v>
+      </c>
+      <c r="B354" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1" spans="1:2">
+      <c r="A355" t="s">
+        <v>696</v>
+      </c>
+      <c r="B355" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1" spans="1:2">
+      <c r="A356" t="s">
+        <v>698</v>
+      </c>
+      <c r="B356" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1" spans="1:2">
+      <c r="A357" t="s">
+        <v>700</v>
+      </c>
+      <c r="B357" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1" spans="1:2">
+      <c r="A358" t="s">
+        <v>702</v>
+      </c>
+      <c r="B358" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1" spans="1:2">
+      <c r="A359" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B359" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1" spans="1:2">
+      <c r="A360" t="s">
+        <v>706</v>
+      </c>
+      <c r="B360" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1" spans="1:2">
+      <c r="A361" t="s">
+        <v>708</v>
+      </c>
+      <c r="B361" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1" spans="1:2">
+      <c r="A362" t="s">
+        <v>710</v>
+      </c>
+      <c r="B362" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1" spans="1:2">
+      <c r="A363" t="s">
+        <v>712</v>
+      </c>
+      <c r="B363" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1" spans="1:2">
+      <c r="A364" t="s">
+        <v>714</v>
+      </c>
+      <c r="B364" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1" spans="1:2">
+      <c r="A365" t="s">
+        <v>716</v>
+      </c>
+      <c r="B365" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1" spans="1:2">
+      <c r="A366" t="s">
+        <v>718</v>
+      </c>
+      <c r="B366" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1" spans="1:2">
+      <c r="A367" t="s">
+        <v>720</v>
+      </c>
+      <c r="B367" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1" spans="1:2">
+      <c r="A368" t="s">
+        <v>722</v>
+      </c>
+      <c r="B368" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1" spans="1:2">
+      <c r="A369" t="s">
+        <v>724</v>
+      </c>
+      <c r="B369" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1" spans="1:2">
+      <c r="A370" t="s">
+        <v>726</v>
+      </c>
+      <c r="B370" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1" spans="1:2">
+      <c r="A371" t="s">
+        <v>728</v>
+      </c>
+      <c r="B371" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1" spans="1:2">
+      <c r="A372" t="s">
+        <v>730</v>
+      </c>
+      <c r="B372" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1" spans="1:2">
+      <c r="A373" t="s">
+        <v>732</v>
+      </c>
+      <c r="B373" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1" spans="1:2">
+      <c r="A374" t="s">
+        <v>734</v>
+      </c>
+      <c r="B374" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1" spans="1:2">
+      <c r="A375" t="s">
+        <v>736</v>
+      </c>
+      <c r="B375" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1" spans="1:2">
+      <c r="A376" t="s">
+        <v>738</v>
+      </c>
+      <c r="B376" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1" spans="1:2">
+      <c r="A377" t="s">
+        <v>740</v>
+      </c>
+      <c r="B377" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1" spans="1:2">
+      <c r="A378" t="s">
+        <v>742</v>
+      </c>
+      <c r="B378" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1" spans="1:2">
+      <c r="A379" t="s">
+        <v>744</v>
+      </c>
+      <c r="B379" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1" spans="1:2">
+      <c r="A380" t="s">
+        <v>746</v>
+      </c>
+      <c r="B380" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1" spans="1:2">
+      <c r="A381" t="s">
+        <v>748</v>
+      </c>
+      <c r="B381" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1" spans="1:2">
+      <c r="A382" t="s">
+        <v>750</v>
+      </c>
+      <c r="B382" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1" spans="1:2">
+      <c r="A383" t="s">
+        <v>752</v>
+      </c>
+      <c r="B383" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1" spans="1:2">
+      <c r="A384" t="s">
+        <v>754</v>
+      </c>
+      <c r="B384" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1" spans="1:2">
+      <c r="A385" t="s">
+        <v>755</v>
+      </c>
+      <c r="B385" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1" spans="1:2">
+      <c r="A386" t="s">
+        <v>757</v>
+      </c>
+      <c r="B386" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1" spans="1:2">
+      <c r="A387" t="s">
+        <v>759</v>
+      </c>
+      <c r="B387" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1" spans="1:2">
+      <c r="A388" t="s">
+        <v>761</v>
+      </c>
+      <c r="B388" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1" spans="1:2">
+      <c r="A389" t="s">
+        <v>763</v>
+      </c>
+      <c r="B389" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1" spans="1:2">
+      <c r="A390" t="s">
+        <v>765</v>
+      </c>
+      <c r="B390" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1" spans="1:2">
+      <c r="A391" t="s">
+        <v>767</v>
+      </c>
+      <c r="B391" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1" spans="1:2">
+      <c r="A392" t="s">
+        <v>769</v>
+      </c>
+      <c r="B392" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1" spans="1:2">
+      <c r="A393" t="s">
+        <v>771</v>
+      </c>
+      <c r="B393" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1" spans="1:2">
+      <c r="A394" t="s">
+        <v>773</v>
+      </c>
+      <c r="B394" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1" spans="1:2">
+      <c r="A395" t="s">
+        <v>775</v>
+      </c>
+      <c r="B395" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1" spans="1:2">
+      <c r="A396" t="s">
+        <v>777</v>
+      </c>
+      <c r="B396" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1" spans="1:2">
+      <c r="A397" t="s">
+        <v>779</v>
+      </c>
+      <c r="B397" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1" spans="1:2">
+      <c r="A398" t="s">
+        <v>781</v>
+      </c>
+      <c r="B398" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1" spans="1:2">
+      <c r="A399" t="s">
+        <v>783</v>
+      </c>
+      <c r="B399" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1" spans="1:2">
+      <c r="A400" t="s">
+        <v>785</v>
+      </c>
+      <c r="B400" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1" spans="1:2">
+      <c r="A401" t="s">
+        <v>787</v>
+      </c>
+      <c r="B401" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1" spans="1:2">
+      <c r="A402" t="s">
+        <v>789</v>
+      </c>
+      <c r="B402" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1" spans="1:2">
+      <c r="A403" t="s">
+        <v>791</v>
+      </c>
+      <c r="B403" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1" spans="1:2">
+      <c r="A404" t="s">
+        <v>793</v>
+      </c>
+      <c r="B404" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1" spans="1:2">
+      <c r="A405" t="s">
+        <v>795</v>
+      </c>
+      <c r="B405" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1" spans="1:2">
+      <c r="A406" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="B406" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1" spans="1:2">
+      <c r="A407" t="s">
+        <v>799</v>
+      </c>
+      <c r="B407" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1" spans="1:2">
+      <c r="A408" t="s">
+        <v>801</v>
+      </c>
+      <c r="B408" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1" spans="1:2">
+      <c r="A409" t="s">
+        <v>803</v>
+      </c>
+      <c r="B409" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1" spans="1:2">
+      <c r="A410" t="s">
+        <v>805</v>
+      </c>
+      <c r="B410" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1" spans="1:2">
+      <c r="A411" t="s">
+        <v>807</v>
+      </c>
+      <c r="B411" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1" spans="1:2">
+      <c r="A412" t="s">
+        <v>809</v>
+      </c>
+      <c r="B412" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1" spans="1:2">
+      <c r="A413" t="s">
+        <v>811</v>
+      </c>
+      <c r="B413" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1" spans="1:2">
+      <c r="A414" t="s">
+        <v>813</v>
+      </c>
+      <c r="B414" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1" spans="1:2">
+      <c r="A415" t="s">
+        <v>815</v>
+      </c>
+      <c r="B415" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1" spans="1:2">
+      <c r="A416" t="s">
+        <v>817</v>
+      </c>
+      <c r="B416" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1" spans="1:2">
+      <c r="A417" t="s">
+        <v>819</v>
+      </c>
+      <c r="B417" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1" spans="1:2">
+      <c r="A418" t="s">
+        <v>821</v>
+      </c>
+      <c r="B418" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1" spans="1:2">
+      <c r="A419" t="s">
+        <v>823</v>
+      </c>
+      <c r="B419" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1" spans="1:2">
+      <c r="A420" t="s">
+        <v>825</v>
+      </c>
+      <c r="B420" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1" spans="1:2">
+      <c r="A421" t="s">
+        <v>827</v>
+      </c>
+      <c r="B421" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1" spans="1:2">
+      <c r="A422" t="s">
+        <v>829</v>
+      </c>
+      <c r="B422" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1" spans="1:2">
+      <c r="A423" t="s">
+        <v>831</v>
+      </c>
+      <c r="B423" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1" spans="1:2">
+      <c r="A424" t="s">
+        <v>833</v>
+      </c>
+      <c r="B424" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1" spans="1:2">
+      <c r="A425" t="s">
+        <v>835</v>
+      </c>
+      <c r="B425" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1" spans="1:2">
+      <c r="A426" t="s">
+        <v>837</v>
+      </c>
+      <c r="B426" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1" spans="1:2">
+      <c r="A427" t="s">
+        <v>839</v>
+      </c>
+      <c r="B427" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1" spans="1:2">
+      <c r="A428" t="s">
+        <v>841</v>
+      </c>
+      <c r="B428" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1" spans="1:2">
+      <c r="A429" t="s">
+        <v>843</v>
+      </c>
+      <c r="B429" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1" spans="1:2">
+      <c r="A430" t="s">
+        <v>845</v>
+      </c>
+      <c r="B430" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1" spans="1:2">
+      <c r="A431" t="s">
+        <v>847</v>
+      </c>
+      <c r="B431" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1" spans="1:2">
+      <c r="A432" t="s">
+        <v>849</v>
+      </c>
+      <c r="B432" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1" spans="1:2">
+      <c r="A433" t="s">
+        <v>851</v>
+      </c>
+      <c r="B433" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1" spans="1:2">
+      <c r="A434" t="s">
+        <v>853</v>
+      </c>
+      <c r="B434" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1" spans="1:2">
+      <c r="A435" t="s">
+        <v>854</v>
+      </c>
+      <c r="B435" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1" spans="1:2">
+      <c r="A436" t="s">
+        <v>856</v>
+      </c>
+      <c r="B436" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1" spans="1:2">
+      <c r="A437" t="s">
+        <v>858</v>
+      </c>
+      <c r="B437" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1" spans="1:2">
+      <c r="A438" t="s">
+        <v>860</v>
+      </c>
+      <c r="B438" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1" spans="1:2">
+      <c r="A439" t="s">
+        <v>862</v>
+      </c>
+      <c r="B439" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1" spans="1:2">
+      <c r="A440" t="s">
+        <v>864</v>
+      </c>
+      <c r="B440" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1" spans="1:2">
+      <c r="A441" t="s">
+        <v>866</v>
+      </c>
+      <c r="B441" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1" spans="1:2">
+      <c r="A442" t="s">
+        <v>868</v>
+      </c>
+      <c r="B442" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1" spans="1:2">
+      <c r="A443" t="s">
+        <v>870</v>
+      </c>
+      <c r="B443" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1" spans="1:2">
+      <c r="A444" t="s">
+        <v>872</v>
+      </c>
+      <c r="B444" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1" spans="1:2">
+      <c r="A445" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B445" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1" spans="1:2">
+      <c r="A446" t="s">
+        <v>876</v>
+      </c>
+      <c r="B446" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1" spans="1:2">
+      <c r="A447" t="s">
+        <v>878</v>
+      </c>
+      <c r="B447" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1" spans="1:2">
+      <c r="A448" t="s">
+        <v>880</v>
+      </c>
+      <c r="B448" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1" spans="1:2">
+      <c r="A449" t="s">
+        <v>882</v>
+      </c>
+      <c r="B449" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1" spans="1:2">
+      <c r="A450" t="s">
+        <v>884</v>
+      </c>
+      <c r="B450" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1" spans="1:2">
+      <c r="A451" t="s">
+        <v>886</v>
+      </c>
+      <c r="B451" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1" spans="1:2">
+      <c r="A452" t="s">
+        <v>888</v>
+      </c>
+      <c r="B452" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1" spans="1:2">
+      <c r="A453" t="s">
+        <v>890</v>
+      </c>
+      <c r="B453" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1" spans="1:2">
+      <c r="A454" t="s">
+        <v>892</v>
+      </c>
+      <c r="B454" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1" spans="1:2">
+      <c r="A455" t="s">
+        <v>894</v>
+      </c>
+      <c r="B455" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1" spans="1:2">
+      <c r="A456" t="s">
+        <v>896</v>
+      </c>
+      <c r="B456" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1" spans="1:2">
+      <c r="A457" t="s">
+        <v>898</v>
+      </c>
+      <c r="B457" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1" spans="1:2">
+      <c r="A458" t="s">
+        <v>900</v>
+      </c>
+      <c r="B458" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1" spans="1:2">
+      <c r="A459" t="s">
+        <v>902</v>
+      </c>
+      <c r="B459" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1" spans="1:2">
+      <c r="A460" t="s">
+        <v>904</v>
+      </c>
+      <c r="B460" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1" spans="1:2">
+      <c r="A461" t="s">
+        <v>906</v>
+      </c>
+      <c r="B461" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1" spans="1:2">
+      <c r="A462" t="s">
+        <v>908</v>
+      </c>
+      <c r="B462" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1" spans="1:2">
+      <c r="A463" t="s">
+        <v>910</v>
+      </c>
+      <c r="B463" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1" spans="1:2">
+      <c r="A464" t="s">
+        <v>912</v>
+      </c>
+      <c r="B464" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="465" ht="15" customHeight="1" spans="1:2">
+      <c r="A465" t="s">
+        <v>914</v>
+      </c>
+      <c r="B465" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="466" ht="15" customHeight="1" spans="1:2">
+      <c r="A466" t="s">
+        <v>916</v>
+      </c>
+      <c r="B466" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="467" ht="15" customHeight="1" spans="1:2">
+      <c r="A467" t="s">
+        <v>918</v>
+      </c>
+      <c r="B467" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="468" ht="15" customHeight="1" spans="1:2">
+      <c r="A468" t="s">
+        <v>920</v>
+      </c>
+      <c r="B468" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="469" ht="15" customHeight="1" spans="1:2">
+      <c r="A469" t="s">
+        <v>922</v>
+      </c>
+      <c r="B469" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="470" ht="15" customHeight="1" spans="1:2">
+      <c r="A470" t="s">
+        <v>924</v>
+      </c>
+      <c r="B470" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="471" ht="15" customHeight="1" spans="1:2">
+      <c r="A471" t="s">
+        <v>926</v>
+      </c>
+      <c r="B471" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="472" ht="15" customHeight="1" spans="1:2">
+      <c r="A472" t="s">
+        <v>928</v>
+      </c>
+      <c r="B472" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="473" ht="15" customHeight="1" spans="1:2">
+      <c r="A473" t="s">
+        <v>930</v>
+      </c>
+      <c r="B473" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="474" ht="15" customHeight="1" spans="1:2">
+      <c r="A474" t="s">
+        <v>932</v>
+      </c>
+      <c r="B474" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="475" ht="15" customHeight="1" spans="1:2">
+      <c r="A475" t="s">
+        <v>934</v>
+      </c>
+      <c r="B475" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="476" ht="15" customHeight="1" spans="1:2">
+      <c r="A476" t="s">
+        <v>936</v>
+      </c>
+      <c r="B476" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="477" ht="15" customHeight="1" spans="1:2">
+      <c r="A477" t="s">
+        <v>938</v>
+      </c>
+      <c r="B477" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="478" ht="15" customHeight="1" spans="1:2">
+      <c r="A478" t="s">
+        <v>940</v>
+      </c>
+      <c r="B478" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="479" ht="15" customHeight="1" spans="1:2">
+      <c r="A479" t="s">
+        <v>942</v>
+      </c>
+      <c r="B479" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="480" ht="15" customHeight="1" spans="1:2">
+      <c r="A480" t="s">
+        <v>944</v>
+      </c>
+      <c r="B480" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="481" ht="15" customHeight="1" spans="1:2">
+      <c r="A481" t="s">
+        <v>946</v>
+      </c>
+      <c r="B481" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="482" ht="15" customHeight="1" spans="1:2">
+      <c r="A482" t="s">
+        <v>948</v>
+      </c>
+      <c r="B482" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="483" ht="15" customHeight="1" spans="1:2">
+      <c r="A483" t="s">
+        <v>950</v>
+      </c>
+      <c r="B483" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="484" ht="15" customHeight="1" spans="1:2">
+      <c r="A484" t="s">
+        <v>952</v>
+      </c>
+      <c r="B484" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="485" ht="15" customHeight="1" spans="1:2">
+      <c r="A485" t="s">
+        <v>954</v>
+      </c>
+      <c r="B485" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="486" ht="15" customHeight="1" spans="1:2">
+      <c r="A486" t="s">
+        <v>956</v>
+      </c>
+      <c r="B486" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="487" ht="15" customHeight="1" spans="1:2">
+      <c r="A487" t="s">
+        <v>958</v>
+      </c>
+      <c r="B487" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="488" ht="15" customHeight="1" spans="1:2">
+      <c r="A488" t="s">
+        <v>959</v>
+      </c>
+      <c r="B488" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="489" ht="15" customHeight="1" spans="1:2">
+      <c r="A489" t="s">
+        <v>961</v>
+      </c>
+      <c r="B489" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="490" ht="15" customHeight="1" spans="1:2">
+      <c r="A490" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="B490" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="491" ht="15" customHeight="1" spans="1:2">
+      <c r="A491" t="s">
+        <v>965</v>
+      </c>
+      <c r="B491" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="492" ht="15" customHeight="1" spans="1:2">
+      <c r="A492" t="s">
+        <v>967</v>
+      </c>
+      <c r="B492" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="493" ht="15" customHeight="1" spans="1:2">
+      <c r="A493" t="s">
+        <v>969</v>
+      </c>
+      <c r="B493" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="494" ht="15" customHeight="1" spans="1:2">
+      <c r="A494" t="s">
+        <v>971</v>
+      </c>
+      <c r="B494" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="495" ht="15" customHeight="1" spans="1:2">
+      <c r="A495" t="s">
+        <v>973</v>
+      </c>
+      <c r="B495" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="496" ht="15" customHeight="1" spans="1:2">
+      <c r="A496" t="s">
+        <v>975</v>
+      </c>
+      <c r="B496" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="497" ht="15" customHeight="1" spans="1:2">
+      <c r="A497" t="s">
+        <v>976</v>
+      </c>
+      <c r="B497" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="498" ht="15" customHeight="1" spans="1:2">
+      <c r="A498" t="s">
+        <v>978</v>
+      </c>
+      <c r="B498" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="499" ht="15" customHeight="1" spans="1:2">
+      <c r="A499" t="s">
+        <v>980</v>
+      </c>
+      <c r="B499" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="500" ht="15" customHeight="1" spans="1:2">
+      <c r="A500" t="s">
+        <v>982</v>
+      </c>
+      <c r="B500" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="501" ht="15" customHeight="1" spans="1:2">
+      <c r="A501" t="s">
+        <v>984</v>
+      </c>
+      <c r="B501" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="502" ht="15" customHeight="1" spans="1:2">
+      <c r="A502" t="s">
+        <v>986</v>
+      </c>
+      <c r="B502" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="503" ht="15" customHeight="1" spans="1:2">
+      <c r="A503" t="s">
+        <v>988</v>
+      </c>
+      <c r="B503" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="504" ht="15" customHeight="1" spans="1:2">
+      <c r="A504" t="s">
+        <v>990</v>
+      </c>
+      <c r="B504" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="505" ht="15" customHeight="1" spans="1:2">
+      <c r="A505" t="s">
+        <v>992</v>
+      </c>
+      <c r="B505" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="506" ht="15" customHeight="1" spans="1:2">
+      <c r="A506" t="s">
+        <v>994</v>
+      </c>
+      <c r="B506" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="507" ht="15" customHeight="1" spans="1:2">
+      <c r="A507" t="s">
+        <v>996</v>
+      </c>
+      <c r="B507" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="508" ht="15" customHeight="1" spans="1:2">
+      <c r="A508" t="s">
+        <v>998</v>
+      </c>
+      <c r="B508" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="509" ht="15" customHeight="1" spans="1:2">
+      <c r="A509" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="510" ht="15" customHeight="1" spans="1:2">
+      <c r="A510" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B510" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="511" ht="15" customHeight="1" spans="1:2">
+      <c r="A511" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="512" ht="15" customHeight="1" spans="1:2">
+      <c r="A512" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="513" ht="15" customHeight="1" spans="1:2">
+      <c r="A513" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="514" ht="15" customHeight="1" spans="1:2">
+      <c r="A514" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="515" ht="15" customHeight="1" spans="1:2">
+      <c r="A515" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="516" ht="15" customHeight="1" spans="1:2">
+      <c r="A516" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="517" ht="15" customHeight="1" spans="1:2">
+      <c r="A517" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="518" ht="15" customHeight="1" spans="1:2">
+      <c r="A518" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="519" ht="15" customHeight="1" spans="1:2">
+      <c r="A519" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="520" ht="15" customHeight="1" spans="1:2">
+      <c r="A520" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="521" ht="15" customHeight="1" spans="1:2">
+      <c r="A521" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B521" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="522" ht="15" customHeight="1" spans="1:2">
+      <c r="A522" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B522" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="523" ht="15" customHeight="1" spans="1:2">
+      <c r="A523" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="524" ht="15" customHeight="1" spans="1:2">
+      <c r="A524" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="525" ht="15" customHeight="1" spans="1:2">
+      <c r="A525" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="526" ht="15" customHeight="1" spans="1:2">
+      <c r="A526" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B526" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="527" ht="15" customHeight="1" spans="1:2">
+      <c r="A527" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B527" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="528" ht="15" customHeight="1" spans="1:2">
+      <c r="A528" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="529" ht="15" customHeight="1" spans="1:2">
+      <c r="A529" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B529" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="530" ht="15" customHeight="1" spans="1:2">
+      <c r="A530" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B530" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="531" ht="15" customHeight="1" spans="1:2">
+      <c r="A531" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B531" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="532" ht="15" customHeight="1" spans="1:2">
+      <c r="A532" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="533" ht="15" customHeight="1" spans="1:2">
+      <c r="A533" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B533" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="534" ht="15" customHeight="1" spans="1:2">
+      <c r="A534" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B534" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="535" ht="15" customHeight="1" spans="1:2">
+      <c r="A535" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B535" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="536" ht="15" customHeight="1" spans="1:2">
+      <c r="A536" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="537" ht="15" customHeight="1" spans="1:2">
+      <c r="A537" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B537" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="538" ht="15" customHeight="1" spans="1:2">
+      <c r="A538" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B538" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="539" ht="15" customHeight="1" spans="1:2">
+      <c r="A539" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B539" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="540" ht="15" customHeight="1" spans="1:2">
+      <c r="A540" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B540" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="541" ht="15" customHeight="1" spans="1:2">
+      <c r="A541" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B541" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="542" ht="15" customHeight="1" spans="1:2">
+      <c r="A542" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B542" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="543" ht="15" customHeight="1" spans="1:2">
+      <c r="A543" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B543" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="544" ht="15" customHeight="1" spans="1:2">
+      <c r="A544" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B544" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="545" ht="15" customHeight="1" spans="1:2">
+      <c r="A545" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B545" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="546" ht="15" customHeight="1" spans="1:2">
+      <c r="A546" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B546" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="547" ht="15" customHeight="1" spans="1:2">
+      <c r="A547" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B547" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="548" ht="15" customHeight="1" spans="1:2">
+      <c r="A548" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B548" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="549" ht="15" customHeight="1" spans="1:2">
+      <c r="A549" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="550" ht="15" customHeight="1" spans="1:2">
+      <c r="A550" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B550" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="551" ht="15" customHeight="1" spans="1:2">
+      <c r="A551" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B551" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="552" ht="15" customHeight="1" spans="1:2">
+      <c r="A552" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B552" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="553" ht="15" customHeight="1" spans="1:2">
+      <c r="A553" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B553" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="554" ht="15" customHeight="1" spans="1:2">
+      <c r="A554" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B554" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="555" ht="15" customHeight="1" spans="1:2">
+      <c r="A555" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B555" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="556" ht="15" customHeight="1" spans="1:2">
+      <c r="A556" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B556" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="557" ht="15" customHeight="1" spans="1:2">
+      <c r="A557" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B557" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="558" ht="15" customHeight="1" spans="1:2">
+      <c r="A558" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B558" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="559" ht="15" customHeight="1" spans="1:2">
+      <c r="A559" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B559" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="560" ht="15" customHeight="1" spans="1:2">
+      <c r="A560" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B560" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="561" ht="15" customHeight="1" spans="1:2">
+      <c r="A561" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B561" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="562" ht="15" customHeight="1" spans="1:2">
+      <c r="A562" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B562" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="563" ht="15" customHeight="1" spans="1:2">
+      <c r="A563" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B563" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="564" ht="15" customHeight="1" spans="1:2">
+      <c r="A564" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B564" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="565" ht="15" customHeight="1" spans="1:2">
+      <c r="A565" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B565" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="566" ht="15" customHeight="1" spans="1:2">
+      <c r="A566" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B566" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="567" ht="15" customHeight="1" spans="1:2">
+      <c r="A567" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B567" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="568" ht="15" customHeight="1" spans="1:2">
+      <c r="A568" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B568" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="569" ht="15" customHeight="1" spans="1:2">
+      <c r="A569" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B569" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="570" ht="15" customHeight="1" spans="1:2">
+      <c r="A570" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B570" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="571" ht="15" customHeight="1" spans="1:2">
+      <c r="A571" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B571" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="572" ht="15" customHeight="1" spans="1:2">
+      <c r="A572" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B572" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="573" ht="15" customHeight="1" spans="1:2">
+      <c r="A573" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B573" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="574" ht="15" customHeight="1" spans="1:2">
+      <c r="A574" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="575" ht="15" customHeight="1" spans="1:2">
+      <c r="A575" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="576" ht="15" customHeight="1" spans="1:2">
+      <c r="A576" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B576" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="577" ht="15" customHeight="1" spans="1:2">
+      <c r="A577" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="578" ht="15" customHeight="1" spans="1:2">
+      <c r="A578" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="579" ht="15" customHeight="1" spans="1:2">
+      <c r="A579" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B579" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="580" ht="15" customHeight="1" spans="1:2">
+      <c r="A580" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B580" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="581" ht="15" customHeight="1" spans="1:2">
+      <c r="A581" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="582" ht="15" customHeight="1" spans="1:2">
+      <c r="A582" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="583" ht="15" customHeight="1" spans="1:2">
+      <c r="A583" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="584" ht="15" customHeight="1" spans="1:2">
+      <c r="A584" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B584" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="585" ht="15" customHeight="1" spans="1:2">
+      <c r="A585" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="586" ht="15" customHeight="1" spans="1:2">
+      <c r="A586" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="587" ht="15" customHeight="1" spans="1:2">
+      <c r="A587" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B587" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="588" ht="15" customHeight="1" spans="1:2">
+      <c r="A588" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B588" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="589" ht="15" customHeight="1" spans="1:2">
+      <c r="A589" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B589" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="590" ht="15" customHeight="1" spans="1:2">
+      <c r="A590" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B590" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="591" ht="15" customHeight="1" spans="1:2">
+      <c r="A591" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="592" ht="15" customHeight="1" spans="1:2">
+      <c r="A592" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="593" ht="15" customHeight="1" spans="1:2">
+      <c r="A593" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B593" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="594" ht="15" customHeight="1" spans="1:2">
+      <c r="A594" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B594" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="595" ht="15" customHeight="1" spans="1:2">
+      <c r="A595" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B595" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="596" ht="15" customHeight="1" spans="1:2">
+      <c r="A596" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B596" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="597" ht="15" customHeight="1" spans="1:2">
+      <c r="A597" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B597" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="598" ht="15" customHeight="1" spans="1:2">
+      <c r="A598" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B598" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="599" ht="15" customHeight="1" spans="1:2">
+      <c r="A599" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B599" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="600" ht="15" customHeight="1" spans="1:2">
+      <c r="A600" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B600" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="601" ht="15" customHeight="1" spans="1:2">
+      <c r="A601" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B601" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="602" ht="15" customHeight="1" spans="1:2">
+      <c r="A602" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B602" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="603" ht="15" customHeight="1" spans="1:2">
+      <c r="A603" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B603" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="604" ht="15" customHeight="1" spans="1:2">
+      <c r="A604" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B604" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="605" ht="15" customHeight="1" spans="1:2">
+      <c r="A605" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B605" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="606" ht="15" customHeight="1" spans="1:2">
+      <c r="A606" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="607" ht="15" customHeight="1" spans="1:2">
+      <c r="A607" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B607" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="608" ht="15" customHeight="1" spans="1:2">
+      <c r="A608" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B608" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="609" ht="15" customHeight="1" spans="1:2">
+      <c r="A609" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B609" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="610" ht="15" customHeight="1" spans="1:2">
+      <c r="A610" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B610" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="611" ht="15" customHeight="1" spans="1:2">
+      <c r="A611" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B611" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="612" ht="15" customHeight="1" spans="1:2">
+      <c r="A612" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B612" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="613" ht="15" customHeight="1" spans="1:2">
+      <c r="A613" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B613" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="614" ht="15" customHeight="1" spans="1:2">
+      <c r="A614" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B614" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="615" ht="15" customHeight="1" spans="1:2">
+      <c r="A615" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B615" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="616" ht="15" customHeight="1" spans="1:2">
+      <c r="A616" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B616" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="617" ht="15" customHeight="1" spans="1:2">
+      <c r="A617" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B617" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="618" ht="15" customHeight="1" spans="1:2">
+      <c r="A618" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="619" ht="15" customHeight="1" spans="1:2">
+      <c r="A619" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B619" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="620" ht="15" customHeight="1" spans="1:2">
+      <c r="A620" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B620" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="621" ht="15" customHeight="1" spans="1:2">
+      <c r="A621" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="622" ht="15" customHeight="1" spans="1:2">
+      <c r="A622" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="623" ht="15" customHeight="1" spans="1:2">
+      <c r="A623" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B623" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="624" ht="15" customHeight="1" spans="1:2">
+      <c r="A624" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B624" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="625" ht="15" customHeight="1" spans="1:2">
+      <c r="A625" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="626" ht="15" customHeight="1" spans="1:2">
+      <c r="A626" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B626" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="627" ht="15" customHeight="1" spans="1:2">
+      <c r="A627" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="628" ht="15" customHeight="1" spans="1:2">
+      <c r="A628" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B628" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="629" ht="15" customHeight="1" spans="1:2">
+      <c r="A629" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B629" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="630" ht="15" customHeight="1" spans="1:2">
+      <c r="A630" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="631" ht="15" customHeight="1" spans="1:2">
+      <c r="A631" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="632" ht="15" customHeight="1" spans="1:2">
+      <c r="A632" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="633" ht="15" customHeight="1" spans="1:2">
+      <c r="A633" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="634" ht="15" customHeight="1" spans="1:2">
+      <c r="A634" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B634" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="635" ht="15" customHeight="1" spans="1:2">
+      <c r="A635" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B635" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="636" ht="15" customHeight="1" spans="1:2">
+      <c r="A636" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="637" ht="15" customHeight="1" spans="1:2">
+      <c r="A637" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B637" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="638" ht="15" customHeight="1" spans="1:2">
+      <c r="A638" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B638" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="639" ht="15" customHeight="1" spans="1:2">
+      <c r="A639" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B639" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="640" ht="15" customHeight="1" spans="1:2">
+      <c r="A640" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B640" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="641" ht="15" customHeight="1" spans="1:2">
+      <c r="A641" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B641" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="642" ht="15" customHeight="1" spans="1:2">
+      <c r="A642" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B642" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="643" ht="15" customHeight="1" spans="1:2">
+      <c r="A643" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B643" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="644" ht="15" customHeight="1" spans="1:2">
+      <c r="A644" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B644" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="645" ht="15" customHeight="1" spans="1:2">
+      <c r="A645" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B645" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="646" ht="15" customHeight="1" spans="1:2">
+      <c r="A646" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B646" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="647" ht="15" customHeight="1" spans="1:2">
+      <c r="A647" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="648" ht="15" customHeight="1" spans="1:2">
+      <c r="A648" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B648" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="649" ht="15" customHeight="1" spans="1:2">
+      <c r="A649" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B649" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="650" ht="15" customHeight="1" spans="1:2">
+      <c r="A650" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B650" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="651" ht="15" customHeight="1" spans="1:2">
+      <c r="A651" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B651" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="652" ht="15" customHeight="1" spans="1:2">
+      <c r="A652" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B652" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="653" ht="15" customHeight="1" spans="1:2">
+      <c r="A653" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B653" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="654" ht="15" customHeight="1" spans="1:2">
+      <c r="A654" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B654" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="655" ht="15" customHeight="1" spans="1:2">
+      <c r="A655" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B655" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="656" ht="15" customHeight="1" spans="1:2">
+      <c r="A656" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B656" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="657" ht="15" customHeight="1" spans="1:2">
+      <c r="A657" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B657" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="658" ht="15" customHeight="1" spans="1:2">
+      <c r="A658" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B658" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="659" ht="15" customHeight="1" spans="1:2">
+      <c r="A659" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B659" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="660" ht="15" customHeight="1" spans="1:2">
+      <c r="A660" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B660" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="661" ht="15" customHeight="1" spans="1:2">
+      <c r="A661" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B661" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="662" ht="15" customHeight="1" spans="1:2">
+      <c r="A662" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B662" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="663" ht="15" customHeight="1" spans="1:2">
+      <c r="A663" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B663" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="664" ht="15" customHeight="1" spans="1:2">
+      <c r="A664" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B664" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="665" ht="15" customHeight="1" spans="1:2">
+      <c r="A665" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B665" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="666" ht="15" customHeight="1" spans="1:2">
+      <c r="A666" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B666" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="667" ht="15" customHeight="1" spans="1:2">
+      <c r="A667" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B667" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="668" ht="15" customHeight="1" spans="1:2">
+      <c r="A668" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B668" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="669" ht="15" customHeight="1" spans="1:2">
+      <c r="A669" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B669" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="670" ht="15" customHeight="1" spans="1:2">
+      <c r="A670" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B670" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="671" ht="15" customHeight="1" spans="1:2">
+      <c r="A671" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B671" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="672" ht="15" customHeight="1" spans="1:2">
+      <c r="A672" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B672" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="673" ht="15" customHeight="1" spans="1:2">
+      <c r="A673" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B673" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="674" ht="15" customHeight="1" spans="1:2">
+      <c r="A674" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B674" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="675" ht="15" customHeight="1" spans="1:2">
+      <c r="A675" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B675" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="676" ht="15" customHeight="1" spans="1:2">
+      <c r="A676" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B676" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="677" ht="15" customHeight="1" spans="1:2">
+      <c r="A677" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B677" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="678" ht="15" customHeight="1" spans="1:2">
+      <c r="A678" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B678" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="679" ht="15" customHeight="1" spans="1:2">
+      <c r="A679" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B679" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="680" ht="15" customHeight="1" spans="1:2">
+      <c r="A680" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B680" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="681" ht="15" customHeight="1" spans="1:2">
+      <c r="A681" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B681" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="682" ht="15" customHeight="1" spans="1:2">
+      <c r="A682" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B682" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="683" ht="15" customHeight="1" spans="1:2">
+      <c r="A683" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B683" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="684" ht="15" customHeight="1" spans="1:2">
+      <c r="A684" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B684" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="685" ht="15" customHeight="1" spans="1:2">
+      <c r="A685" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B685" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="686" ht="15" customHeight="1" spans="1:2">
+      <c r="A686" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B686" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="687" ht="15" customHeight="1" spans="1:2">
+      <c r="A687" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B687" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="688" ht="15" customHeight="1" spans="1:2">
+      <c r="A688" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B688" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="689" ht="15" customHeight="1" spans="1:2">
+      <c r="A689" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B689" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="690" ht="15" customHeight="1" spans="1:2">
+      <c r="A690" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B690" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="691" ht="15" customHeight="1" spans="1:2">
+      <c r="A691" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B691" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="692" ht="15" customHeight="1" spans="1:2">
+      <c r="A692" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B692" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="693" ht="15" customHeight="1" spans="1:2">
+      <c r="A693" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B693" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="694" ht="15" customHeight="1" spans="1:2">
+      <c r="A694" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B694" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="695" ht="15" customHeight="1" spans="1:2">
+      <c r="A695" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B695" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="696" ht="15" customHeight="1" spans="1:2">
+      <c r="A696" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B696" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="697" ht="15" customHeight="1" spans="1:2">
+      <c r="A697" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B697" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="698" ht="15" customHeight="1" spans="1:2">
+      <c r="A698" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B698" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="699" ht="15" customHeight="1" spans="1:2">
+      <c r="A699" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B699" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="700" ht="15" customHeight="1" spans="1:2">
+      <c r="A700" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B700" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="701" ht="15" customHeight="1" spans="1:2">
+      <c r="A701" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B701" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="702" ht="15" customHeight="1" spans="1:2">
+      <c r="A702" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B702" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="703" ht="15" customHeight="1" spans="1:2">
+      <c r="A703" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B703" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="704" ht="15" customHeight="1" spans="1:2">
+      <c r="A704" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B704" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="705" ht="15" customHeight="1" spans="1:2">
+      <c r="A705" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B705" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="706" ht="15" customHeight="1" spans="1:2">
+      <c r="A706" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B706" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="707" ht="15" customHeight="1" spans="1:2">
+      <c r="A707" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B707" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="708" ht="15" customHeight="1" spans="1:2">
+      <c r="A708" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B708" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="709" ht="15" customHeight="1" spans="1:2">
+      <c r="A709" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B709" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="710" ht="15" customHeight="1" spans="1:2">
+      <c r="A710" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B710" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="711" ht="15" customHeight="1" spans="1:2">
+      <c r="A711" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B711" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="712" ht="15" customHeight="1" spans="1:2">
+      <c r="A712" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B712" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="713" ht="15" customHeight="1" spans="1:2">
+      <c r="A713" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B713" t="s">
+        <v>1394</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/kkWords.xlsx
+++ b/kkWords.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734">
   <si>
     <t>glowing</t>
   </si>
@@ -4201,6 +4201,1023 @@
   </si>
   <si>
     <t>潜</t>
+  </si>
+  <si>
+    <t>unit 18</t>
+  </si>
+  <si>
+    <t>单位18</t>
+  </si>
+  <si>
+    <t>deem</t>
+  </si>
+  <si>
+    <t>认为</t>
+  </si>
+  <si>
+    <t>litter</t>
+  </si>
+  <si>
+    <t>窝</t>
+  </si>
+  <si>
+    <t>magnificient</t>
+  </si>
+  <si>
+    <t>宏伟</t>
+  </si>
+  <si>
+    <t>magnitude</t>
+  </si>
+  <si>
+    <t>大小</t>
+  </si>
+  <si>
+    <t>differ</t>
+  </si>
+  <si>
+    <t>不同</t>
+  </si>
+  <si>
+    <t>obstruct</t>
+  </si>
+  <si>
+    <t>pant</t>
+  </si>
+  <si>
+    <t>喘气</t>
+  </si>
+  <si>
+    <t>clause</t>
+  </si>
+  <si>
+    <t>条款</t>
+  </si>
+  <si>
+    <t>anticipate</t>
+  </si>
+  <si>
+    <t>预料</t>
+  </si>
+  <si>
+    <t>pave</t>
+  </si>
+  <si>
+    <t>铺平</t>
+  </si>
+  <si>
+    <t>suspend</t>
+  </si>
+  <si>
+    <t>暂停</t>
+  </si>
+  <si>
+    <t>utter</t>
+  </si>
+  <si>
+    <t>说出</t>
+  </si>
+  <si>
+    <t>monopoly</t>
+  </si>
+  <si>
+    <t>垄断</t>
+  </si>
+  <si>
+    <t>vain</t>
+  </si>
+  <si>
+    <t>徒然</t>
+  </si>
+  <si>
+    <t>ample</t>
+  </si>
+  <si>
+    <t>充足</t>
+  </si>
+  <si>
+    <t>perceive</t>
+  </si>
+  <si>
+    <t>感知</t>
+  </si>
+  <si>
+    <t>chill</t>
+  </si>
+  <si>
+    <t>寒意</t>
+  </si>
+  <si>
+    <t>sustain</t>
+  </si>
+  <si>
+    <t>支持</t>
+  </si>
+  <si>
+    <t>vague</t>
+  </si>
+  <si>
+    <t>模糊</t>
+  </si>
+  <si>
+    <t>civilize</t>
+  </si>
+  <si>
+    <t>教化</t>
+  </si>
+  <si>
+    <t>utilize</t>
+  </si>
+  <si>
+    <t>utmost</t>
+  </si>
+  <si>
+    <t>极</t>
+  </si>
+  <si>
+    <t>penalty</t>
+  </si>
+  <si>
+    <t>罚款</t>
+  </si>
+  <si>
+    <t>tendency</t>
+  </si>
+  <si>
+    <t>趋势</t>
+  </si>
+  <si>
+    <t>thrive</t>
+  </si>
+  <si>
+    <t>兴旺</t>
+  </si>
+  <si>
+    <t>persuade</t>
+  </si>
+  <si>
+    <t>说服</t>
+  </si>
+  <si>
+    <t>assess</t>
+  </si>
+  <si>
+    <t>评估</t>
+  </si>
+  <si>
+    <t>veto</t>
+  </si>
+  <si>
+    <t>否决</t>
+  </si>
+  <si>
+    <t>toss</t>
+  </si>
+  <si>
+    <t>折腾</t>
+  </si>
+  <si>
+    <t>tumble</t>
+  </si>
+  <si>
+    <t>下跌</t>
+  </si>
+  <si>
+    <t>sweep</t>
+  </si>
+  <si>
+    <t>扫</t>
+  </si>
+  <si>
+    <t>versatile</t>
+  </si>
+  <si>
+    <t>多才多艺</t>
+  </si>
+  <si>
+    <t>vicious</t>
+  </si>
+  <si>
+    <t>恶毒</t>
+  </si>
+  <si>
+    <t>astonish</t>
+  </si>
+  <si>
+    <t>震惊</t>
+  </si>
+  <si>
+    <t>bosom</t>
+  </si>
+  <si>
+    <t>怀</t>
+  </si>
+  <si>
+    <t>census</t>
+  </si>
+  <si>
+    <t>人口调查</t>
+  </si>
+  <si>
+    <t>climate</t>
+  </si>
+  <si>
+    <t>气候</t>
+  </si>
+  <si>
+    <t>bribe</t>
+  </si>
+  <si>
+    <t>贿赂</t>
+  </si>
+  <si>
+    <t>breed</t>
+  </si>
+  <si>
+    <t>品种</t>
+  </si>
+  <si>
+    <t>vibrate</t>
+  </si>
+  <si>
+    <t>颤动</t>
+  </si>
+  <si>
+    <t>vocal</t>
+  </si>
+  <si>
+    <t>声音的</t>
+  </si>
+  <si>
+    <t>auxiliary</t>
+  </si>
+  <si>
+    <t>辅</t>
+  </si>
+  <si>
+    <t>mass</t>
+  </si>
+  <si>
+    <t>块</t>
+  </si>
+  <si>
+    <t>unit 19</t>
+  </si>
+  <si>
+    <t>单位19</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>货币</t>
+  </si>
+  <si>
+    <t>dazzle</t>
+  </si>
+  <si>
+    <t>炫</t>
+  </si>
+  <si>
+    <t>deficit</t>
+  </si>
+  <si>
+    <t>赤字</t>
+  </si>
+  <si>
+    <t>levy</t>
+  </si>
+  <si>
+    <t>征收</t>
+  </si>
+  <si>
+    <t>loosen</t>
+  </si>
+  <si>
+    <t>松开</t>
+  </si>
+  <si>
+    <t>militant</t>
+  </si>
+  <si>
+    <t>激进</t>
+  </si>
+  <si>
+    <t>verge</t>
+  </si>
+  <si>
+    <t>边缘</t>
+  </si>
+  <si>
+    <t>verse</t>
+  </si>
+  <si>
+    <t>诗</t>
+  </si>
+  <si>
+    <t>devise</t>
+  </si>
+  <si>
+    <t>设计</t>
+  </si>
+  <si>
+    <t>diffuse</t>
+  </si>
+  <si>
+    <t>扩散</t>
+  </si>
+  <si>
+    <t>withstand</t>
+  </si>
+  <si>
+    <t>经受</t>
+  </si>
+  <si>
+    <t>cease</t>
+  </si>
+  <si>
+    <t>停止</t>
+  </si>
+  <si>
+    <t>coalition</t>
+  </si>
+  <si>
+    <t>联盟</t>
+  </si>
+  <si>
+    <t>bruise</t>
+  </si>
+  <si>
+    <t>挫伤</t>
+  </si>
+  <si>
+    <t>bypass</t>
+  </si>
+  <si>
+    <t>旁路</t>
+  </si>
+  <si>
+    <t>opt</t>
+  </si>
+  <si>
+    <t>选择</t>
+  </si>
+  <si>
+    <t>palm</t>
+  </si>
+  <si>
+    <t>棕榈</t>
+  </si>
+  <si>
+    <t>parcel</t>
+  </si>
+  <si>
+    <t>包</t>
+  </si>
+  <si>
+    <t>adapt</t>
+  </si>
+  <si>
+    <t>适应</t>
+  </si>
+  <si>
+    <t>allowance</t>
+  </si>
+  <si>
+    <t>津贴</t>
+  </si>
+  <si>
+    <t>pattern</t>
+  </si>
+  <si>
+    <t>图案</t>
+  </si>
+  <si>
+    <t>aviation</t>
+  </si>
+  <si>
+    <t>航空</t>
+  </si>
+  <si>
+    <t>mourn</t>
+  </si>
+  <si>
+    <t>悼</t>
+  </si>
+  <si>
+    <t>amend</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>可怕</t>
+  </si>
+  <si>
+    <t>preach</t>
+  </si>
+  <si>
+    <t>传道</t>
+  </si>
+  <si>
+    <t>submerge</t>
+  </si>
+  <si>
+    <t>淹没</t>
+  </si>
+  <si>
+    <t>agent</t>
+  </si>
+  <si>
+    <t>代理人</t>
+  </si>
+  <si>
+    <t>summit</t>
+  </si>
+  <si>
+    <t>首脑</t>
+  </si>
+  <si>
+    <t>aggravate</t>
+  </si>
+  <si>
+    <t>加剧</t>
+  </si>
+  <si>
+    <t>pension</t>
+  </si>
+  <si>
+    <t>养老金</t>
+  </si>
+  <si>
+    <t>subsequent</t>
+  </si>
+  <si>
+    <t>随后</t>
+  </si>
+  <si>
+    <t>tropical</t>
+  </si>
+  <si>
+    <t>热带</t>
+  </si>
+  <si>
+    <t>anguish</t>
+  </si>
+  <si>
+    <t>bewilder</t>
+  </si>
+  <si>
+    <t>困惑</t>
+  </si>
+  <si>
+    <t>appliance</t>
+  </si>
+  <si>
+    <t>器具</t>
+  </si>
+  <si>
+    <t>plea</t>
+  </si>
+  <si>
+    <t>恳求</t>
+  </si>
+  <si>
+    <t>premise</t>
+  </si>
+  <si>
+    <t>前提</t>
+  </si>
+  <si>
+    <t>premium</t>
+  </si>
+  <si>
+    <t>额外费用</t>
+  </si>
+  <si>
+    <t>tame</t>
+  </si>
+  <si>
+    <t>驯服</t>
+  </si>
+  <si>
+    <t>plural</t>
+  </si>
+  <si>
+    <t>复数</t>
+  </si>
+  <si>
+    <t>massacre</t>
+  </si>
+  <si>
+    <t>屠杀</t>
+  </si>
+  <si>
+    <t>masterpiece</t>
+  </si>
+  <si>
+    <t>杰作</t>
+  </si>
+  <si>
+    <t>unit 20</t>
+  </si>
+  <si>
+    <t>单位20</t>
+  </si>
+  <si>
+    <t>disguise</t>
+  </si>
+  <si>
+    <t>伪装</t>
+  </si>
+  <si>
+    <t>surge</t>
+  </si>
+  <si>
+    <t>浪涌</t>
+  </si>
+  <si>
+    <t>synthetic</t>
+  </si>
+  <si>
+    <t>合成的</t>
+  </si>
+  <si>
+    <t>testify</t>
+  </si>
+  <si>
+    <t>作证</t>
+  </si>
+  <si>
+    <t>aural</t>
+  </si>
+  <si>
+    <t>听觉</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>商品</t>
+  </si>
+  <si>
+    <t>comprise</t>
+  </si>
+  <si>
+    <t>compromise</t>
+  </si>
+  <si>
+    <t>妥协</t>
+  </si>
+  <si>
+    <t>compulsory</t>
+  </si>
+  <si>
+    <t>义务</t>
+  </si>
+  <si>
+    <t>delight</t>
+  </si>
+  <si>
+    <t>喜</t>
+  </si>
+  <si>
+    <t>desolate</t>
+  </si>
+  <si>
+    <t>荒凉</t>
+  </si>
+  <si>
+    <t>despise</t>
+  </si>
+  <si>
+    <t>dictate</t>
+  </si>
+  <si>
+    <t>听写</t>
+  </si>
+  <si>
+    <t>dine</t>
+  </si>
+  <si>
+    <t>用餐</t>
+  </si>
+  <si>
+    <t>discard</t>
+  </si>
+  <si>
+    <t>丢弃</t>
+  </si>
+  <si>
+    <t>discriminate</t>
+  </si>
+  <si>
+    <t>辨析</t>
+  </si>
+  <si>
+    <t>divine</t>
+  </si>
+  <si>
+    <t>drastic</t>
+  </si>
+  <si>
+    <t>激烈</t>
+  </si>
+  <si>
+    <t>dubious</t>
+  </si>
+  <si>
+    <t>可疑</t>
+  </si>
+  <si>
+    <t>exceptional</t>
+  </si>
+  <si>
+    <t>优秀</t>
+  </si>
+  <si>
+    <t>excessive</t>
+  </si>
+  <si>
+    <t>过多</t>
+  </si>
+  <si>
+    <t>extravagant</t>
+  </si>
+  <si>
+    <t>靡</t>
+  </si>
+  <si>
+    <t>foster</t>
+  </si>
+  <si>
+    <t>fragile</t>
+  </si>
+  <si>
+    <t>脆弱</t>
+  </si>
+  <si>
+    <t>futile</t>
+  </si>
+  <si>
+    <t>无用</t>
+  </si>
+  <si>
+    <t>grieve</t>
+  </si>
+  <si>
+    <t>heritage</t>
+  </si>
+  <si>
+    <t>遗产</t>
+  </si>
+  <si>
+    <t>hypocrisy</t>
+  </si>
+  <si>
+    <t>假意</t>
+  </si>
+  <si>
+    <t>hypothesis</t>
+  </si>
+  <si>
+    <t>hysterical</t>
+  </si>
+  <si>
+    <t>歇斯底里</t>
+  </si>
+  <si>
+    <t>illustrate</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>impair</t>
+  </si>
+  <si>
+    <t>妨害</t>
+  </si>
+  <si>
+    <t>impart</t>
+  </si>
+  <si>
+    <t>传授</t>
+  </si>
+  <si>
+    <t>incidence</t>
+  </si>
+  <si>
+    <t>发生率</t>
+  </si>
+  <si>
+    <t>inferior</t>
+  </si>
+  <si>
+    <t>下</t>
+  </si>
+  <si>
+    <t>inherit</t>
+  </si>
+  <si>
+    <t>继承</t>
+  </si>
+  <si>
+    <t>insult</t>
+  </si>
+  <si>
+    <t>侮辱</t>
+  </si>
+  <si>
+    <t>interfere</t>
+  </si>
+  <si>
+    <t>irrespective</t>
+  </si>
+  <si>
+    <t>不管</t>
+  </si>
+  <si>
+    <t>jury</t>
+  </si>
+  <si>
+    <t>陪审团</t>
+  </si>
+  <si>
+    <t>lease</t>
+  </si>
+  <si>
+    <t>租</t>
+  </si>
+  <si>
+    <t>liberal</t>
+  </si>
+  <si>
+    <t>自由派</t>
+  </si>
+  <si>
+    <t>loom</t>
+  </si>
+  <si>
+    <t>织布机</t>
+  </si>
+  <si>
+    <t>oppose</t>
+  </si>
+  <si>
+    <t>反对</t>
+  </si>
+  <si>
+    <t>oppress</t>
+  </si>
+  <si>
+    <t>压迫</t>
+  </si>
+  <si>
+    <t>monument</t>
+  </si>
+  <si>
+    <t>纪念碑</t>
+  </si>
+  <si>
+    <t>unit 21</t>
+  </si>
+  <si>
+    <t>单位21</t>
+  </si>
+  <si>
+    <t>conceal</t>
+  </si>
+  <si>
+    <t>隐藏</t>
+  </si>
+  <si>
+    <t>concede</t>
+  </si>
+  <si>
+    <t>承认</t>
+  </si>
+  <si>
+    <t>conceive</t>
+  </si>
+  <si>
+    <t>构想</t>
+  </si>
+  <si>
+    <t>concession</t>
+  </si>
+  <si>
+    <t>让步</t>
+  </si>
+  <si>
+    <t>concise</t>
+  </si>
+  <si>
+    <t>简洁</t>
+  </si>
+  <si>
+    <t>condemn</t>
+  </si>
+  <si>
+    <t>condense</t>
+  </si>
+  <si>
+    <t>凝结</t>
+  </si>
+  <si>
+    <t>confer</t>
+  </si>
+  <si>
+    <t>授予</t>
+  </si>
+  <si>
+    <t>conform</t>
+  </si>
+  <si>
+    <t>confront</t>
+  </si>
+  <si>
+    <t>面对</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>国会</t>
+  </si>
+  <si>
+    <t>conquest</t>
+  </si>
+  <si>
+    <t>征服</t>
+  </si>
+  <si>
+    <t>conscience</t>
+  </si>
+  <si>
+    <t>良心</t>
+  </si>
+  <si>
+    <t>conscious</t>
+  </si>
+  <si>
+    <t>意识</t>
+  </si>
+  <si>
+    <t>consecutive</t>
+  </si>
+  <si>
+    <t>连续</t>
+  </si>
+  <si>
+    <t>consent</t>
+  </si>
+  <si>
+    <t>同意</t>
+  </si>
+  <si>
+    <t>consequence</t>
+  </si>
+  <si>
+    <t>后果</t>
+  </si>
+  <si>
+    <t>conservation</t>
+  </si>
+  <si>
+    <t>保护</t>
+  </si>
+  <si>
+    <t>consist</t>
+  </si>
+  <si>
+    <t>组成</t>
+  </si>
+  <si>
+    <t>console</t>
+  </si>
+  <si>
+    <t>安慰</t>
+  </si>
+  <si>
+    <t>conspiracy</t>
+  </si>
+  <si>
+    <t>阴谋</t>
+  </si>
+  <si>
+    <t>constituent</t>
+  </si>
+  <si>
+    <t>组分</t>
+  </si>
+  <si>
+    <t>constitute</t>
+  </si>
+  <si>
+    <t>构成</t>
+  </si>
+  <si>
+    <t>constrain</t>
+  </si>
+  <si>
+    <t>压抑</t>
+  </si>
+  <si>
+    <t>consult</t>
+  </si>
+  <si>
+    <t>请教</t>
+  </si>
+  <si>
+    <t>contempt</t>
+  </si>
+  <si>
+    <t>鄙视</t>
+  </si>
+  <si>
+    <t>contend</t>
+  </si>
+  <si>
+    <t>抗衡</t>
+  </si>
+  <si>
+    <t>contradict</t>
+  </si>
+  <si>
+    <t>顶撞</t>
+  </si>
+  <si>
+    <t>convention</t>
+  </si>
+  <si>
+    <t>惯例</t>
+  </si>
+  <si>
+    <t>conversely</t>
+  </si>
+  <si>
+    <t>反过来</t>
+  </si>
+  <si>
+    <t>conversion</t>
+  </si>
+  <si>
+    <t>转变</t>
+  </si>
+  <si>
+    <t>convict</t>
+  </si>
+  <si>
+    <t>定罪</t>
+  </si>
+  <si>
+    <t>conviction</t>
+  </si>
+  <si>
+    <t>信念</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>坍方</t>
+  </si>
+  <si>
+    <t>compatible</t>
+  </si>
+  <si>
+    <t>兼容</t>
+  </si>
+  <si>
+    <t>compliment</t>
+  </si>
+  <si>
+    <t>赞扬</t>
+  </si>
+  <si>
+    <t>defy</t>
+  </si>
+  <si>
+    <t>违抗</t>
+  </si>
+  <si>
+    <t>derive</t>
+  </si>
+  <si>
+    <t>派生</t>
+  </si>
+  <si>
+    <t>detain</t>
+  </si>
+  <si>
+    <t>拘留</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>折扣</t>
   </si>
 </sst>
 </file>
@@ -4208,10 +5225,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -4237,9 +5254,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4253,9 +5270,55 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4275,10 +5338,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4290,15 +5354,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -4313,61 +5382,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4382,13 +5399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4406,7 +5417,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4418,13 +5435,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4436,73 +5453,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4520,6 +5471,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4532,7 +5543,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4544,25 +5561,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4576,11 +5593,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4614,62 +5685,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4678,142 +5695,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5178,10 +6195,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B713"/>
+  <dimension ref="A1:B891"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D124" workbookViewId="0">
-      <selection activeCell="C378" sqref="C378"/>
+    <sheetView tabSelected="1" topLeftCell="A689" workbookViewId="0">
+      <selection activeCell="K886" sqref="K886"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="1"/>
@@ -10891,6 +11908,1430 @@
       </c>
       <c r="B713" t="s">
         <v>1394</v>
+      </c>
+    </row>
+    <row r="714" ht="15" customHeight="1" spans="1:2">
+      <c r="A714" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B714" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="715" ht="15" customHeight="1" spans="1:2">
+      <c r="A715" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B715" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="716" ht="15" customHeight="1" spans="1:2">
+      <c r="A716" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B716" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="717" ht="15" customHeight="1" spans="1:2">
+      <c r="A717" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B717" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="718" ht="15" customHeight="1" spans="1:2">
+      <c r="A718" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B718" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="719" ht="15" customHeight="1" spans="1:2">
+      <c r="A719" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B719" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="720" ht="15" customHeight="1" spans="1:2">
+      <c r="A720" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B720" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="721" ht="15" customHeight="1" spans="1:2">
+      <c r="A721" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B721" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="722" ht="15" customHeight="1" spans="1:2">
+      <c r="A722" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B722" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="723" ht="15" customHeight="1" spans="1:2">
+      <c r="A723" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B723" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="724" ht="15" customHeight="1" spans="1:2">
+      <c r="A724" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B724" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="725" ht="15" customHeight="1" spans="1:2">
+      <c r="A725" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B725" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="726" ht="15" customHeight="1" spans="1:2">
+      <c r="A726" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B726" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="727" ht="15" customHeight="1" spans="1:2">
+      <c r="A727" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B727" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="728" ht="15" customHeight="1" spans="1:2">
+      <c r="A728" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B728" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="729" ht="15" customHeight="1" spans="1:2">
+      <c r="A729" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B729" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="730" ht="15" customHeight="1" spans="1:2">
+      <c r="A730" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B730" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="731" ht="15" customHeight="1" spans="1:2">
+      <c r="A731" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B731" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="732" ht="15" customHeight="1" spans="1:2">
+      <c r="A732" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B732" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="733" ht="15" customHeight="1" spans="1:2">
+      <c r="A733" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B733" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="734" ht="15" customHeight="1" spans="1:2">
+      <c r="A734" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B734" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="735" ht="15" customHeight="1" spans="1:2">
+      <c r="A735" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B735" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="736" ht="15" customHeight="1" spans="1:2">
+      <c r="A736" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B736" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="737" ht="15" customHeight="1" spans="1:2">
+      <c r="A737" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B737" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="738" ht="15" customHeight="1" spans="1:2">
+      <c r="A738" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B738" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="739" ht="15" customHeight="1" spans="1:2">
+      <c r="A739" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B739" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="740" ht="15" customHeight="1" spans="1:2">
+      <c r="A740" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B740" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="741" ht="15" customHeight="1" spans="1:2">
+      <c r="A741" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B741" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="742" ht="15" customHeight="1" spans="1:2">
+      <c r="A742" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B742" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="743" ht="15" customHeight="1" spans="1:2">
+      <c r="A743" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B743" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="744" ht="15" customHeight="1" spans="1:2">
+      <c r="A744" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B744" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="745" ht="15" customHeight="1" spans="1:2">
+      <c r="A745" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B745" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="746" ht="15" customHeight="1" spans="1:2">
+      <c r="A746" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B746" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="747" ht="15" customHeight="1" spans="1:2">
+      <c r="A747" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B747" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="748" ht="15" customHeight="1" spans="1:2">
+      <c r="A748" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B748" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="749" ht="15" customHeight="1" spans="1:2">
+      <c r="A749" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B749" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="750" ht="15" customHeight="1" spans="1:2">
+      <c r="A750" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B750" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="751" ht="15" customHeight="1" spans="1:2">
+      <c r="A751" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B751" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="752" ht="15" customHeight="1" spans="1:2">
+      <c r="A752" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B752" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="753" ht="15" customHeight="1" spans="1:2">
+      <c r="A753" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B753" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="754" ht="15" customHeight="1" spans="1:2">
+      <c r="A754" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B754" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="755" ht="15" customHeight="1" spans="1:2">
+      <c r="A755" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B755" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="756" ht="15" customHeight="1" spans="1:2">
+      <c r="A756" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B756" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="757" ht="15" customHeight="1" spans="1:2">
+      <c r="A757" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B757" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="758" ht="15" customHeight="1" spans="1:2">
+      <c r="A758" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B758" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="759" ht="15" customHeight="1" spans="1:2">
+      <c r="A759" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B759" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="760" ht="15" customHeight="1" spans="1:2">
+      <c r="A760" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B760" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="761" ht="15" customHeight="1" spans="1:2">
+      <c r="A761" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B761" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="762" ht="15" customHeight="1" spans="1:2">
+      <c r="A762" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B762" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="763" ht="15" customHeight="1" spans="1:2">
+      <c r="A763" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B763" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="764" ht="15" customHeight="1" spans="1:2">
+      <c r="A764" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B764" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="765" ht="15" customHeight="1" spans="1:2">
+      <c r="A765" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B765" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="766" ht="15" customHeight="1" spans="1:2">
+      <c r="A766" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B766" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="767" ht="15" customHeight="1" spans="1:2">
+      <c r="A767" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B767" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="768" ht="15" customHeight="1" spans="1:2">
+      <c r="A768" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B768" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="769" ht="15" customHeight="1" spans="1:2">
+      <c r="A769" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B769" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="770" ht="15" customHeight="1" spans="1:2">
+      <c r="A770" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B770" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="771" ht="15" customHeight="1" spans="1:2">
+      <c r="A771" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B771" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="772" ht="15" customHeight="1" spans="1:2">
+      <c r="A772" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B772" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="773" ht="15" customHeight="1" spans="1:2">
+      <c r="A773" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B773" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="774" ht="15" customHeight="1" spans="1:2">
+      <c r="A774" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B774" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="775" ht="15" customHeight="1" spans="1:2">
+      <c r="A775" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B775" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="776" ht="15" customHeight="1" spans="1:2">
+      <c r="A776" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B776" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="777" ht="15" customHeight="1" spans="1:2">
+      <c r="A777" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B777" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="778" ht="15" customHeight="1" spans="1:2">
+      <c r="A778" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B778" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="779" ht="15" customHeight="1" spans="1:2">
+      <c r="A779" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B779" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="780" ht="15" customHeight="1" spans="1:2">
+      <c r="A780" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B780" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="781" ht="15" customHeight="1" spans="1:2">
+      <c r="A781" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B781" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="782" ht="15" customHeight="1" spans="1:2">
+      <c r="A782" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B782" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="783" ht="15" customHeight="1" spans="1:2">
+      <c r="A783" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B783" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="784" ht="15" customHeight="1" spans="1:2">
+      <c r="A784" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B784" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="785" ht="15" customHeight="1" spans="1:2">
+      <c r="A785" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B785" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="786" ht="15" customHeight="1" spans="1:2">
+      <c r="A786" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B786" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="787" ht="15" customHeight="1" spans="1:2">
+      <c r="A787" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B787" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="788" ht="15" customHeight="1" spans="1:2">
+      <c r="A788" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B788" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="789" ht="15" customHeight="1" spans="1:2">
+      <c r="A789" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B789" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="790" ht="15" customHeight="1" spans="1:2">
+      <c r="A790" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B790" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="791" ht="15" customHeight="1" spans="1:2">
+      <c r="A791" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B791" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="792" ht="15" customHeight="1" spans="1:2">
+      <c r="A792" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B792" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="793" ht="15" customHeight="1" spans="1:2">
+      <c r="A793" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B793" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="794" ht="15" customHeight="1" spans="1:2">
+      <c r="A794" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B794" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="795" ht="15" customHeight="1" spans="1:2">
+      <c r="A795" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B795" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="796" ht="15" customHeight="1" spans="1:2">
+      <c r="A796" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B796" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="797" ht="15" customHeight="1" spans="1:2">
+      <c r="A797" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B797" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="798" ht="15" customHeight="1" spans="1:2">
+      <c r="A798" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B798" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="799" ht="15" customHeight="1" spans="1:2">
+      <c r="A799" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B799" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="800" ht="15" customHeight="1" spans="1:2">
+      <c r="A800" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B800" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="801" ht="15" customHeight="1" spans="1:2">
+      <c r="A801" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B801" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="802" ht="15" customHeight="1" spans="1:2">
+      <c r="A802" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B802" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="803" ht="15" customHeight="1" spans="1:2">
+      <c r="A803" t="s">
+        <v>687</v>
+      </c>
+      <c r="B803" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="804" ht="15" customHeight="1" spans="1:2">
+      <c r="A804" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B804" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="805" ht="15" customHeight="1" spans="1:2">
+      <c r="A805" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B805" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="806" ht="15" customHeight="1" spans="1:2">
+      <c r="A806" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B806" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="807" ht="15" customHeight="1" spans="1:2">
+      <c r="A807" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B807" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="808" ht="15" customHeight="1" spans="1:2">
+      <c r="A808" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B808" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="809" ht="15" customHeight="1" spans="1:2">
+      <c r="A809" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B809" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="810" ht="15" customHeight="1" spans="1:2">
+      <c r="A810" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B810" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="811" ht="15" customHeight="1" spans="1:2">
+      <c r="A811" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B811" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="812" ht="15" customHeight="1" spans="1:2">
+      <c r="A812" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B812" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="813" ht="15" customHeight="1" spans="1:2">
+      <c r="A813" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B813" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="814" ht="15" customHeight="1" spans="1:2">
+      <c r="A814" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B814" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="815" ht="15" customHeight="1" spans="1:2">
+      <c r="A815" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B815" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="816" ht="15" customHeight="1" spans="1:2">
+      <c r="A816" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B816" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="817" ht="15" customHeight="1" spans="1:2">
+      <c r="A817" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B817" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="818" ht="15" customHeight="1" spans="1:2">
+      <c r="A818" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B818" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="819" ht="15" customHeight="1" spans="1:2">
+      <c r="A819" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B819" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="820" ht="15" customHeight="1" spans="1:2">
+      <c r="A820" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B820" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="821" ht="15" customHeight="1" spans="1:2">
+      <c r="A821" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B821" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="822" ht="15" customHeight="1" spans="1:2">
+      <c r="A822" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B822" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="823" ht="15" customHeight="1" spans="1:2">
+      <c r="A823" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B823" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="824" ht="15" customHeight="1" spans="1:2">
+      <c r="A824" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B824" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="825" ht="15" customHeight="1" spans="1:2">
+      <c r="A825" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B825" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="826" ht="15" customHeight="1" spans="1:2">
+      <c r="A826" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B826" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="827" ht="15" customHeight="1" spans="1:2">
+      <c r="A827" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B827" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="828" ht="15" customHeight="1" spans="1:2">
+      <c r="A828" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B828" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="829" ht="15" customHeight="1" spans="1:2">
+      <c r="A829" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B829" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="830" ht="15" customHeight="1" spans="1:2">
+      <c r="A830" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B830" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="831" ht="15" customHeight="1" spans="1:2">
+      <c r="A831" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B831" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="832" ht="15" customHeight="1" spans="1:2">
+      <c r="A832" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B832" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="833" ht="15" customHeight="1" spans="1:2">
+      <c r="A833" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B833" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="834" ht="15" customHeight="1" spans="1:2">
+      <c r="A834" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B834" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="835" ht="15" customHeight="1" spans="1:2">
+      <c r="A835" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B835" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="836" ht="15" customHeight="1" spans="1:2">
+      <c r="A836" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B836" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="837" ht="15" customHeight="1" spans="1:2">
+      <c r="A837" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B837" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="838" ht="15" customHeight="1" spans="1:2">
+      <c r="A838" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B838" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="839" ht="15" customHeight="1" spans="1:2">
+      <c r="A839" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B839" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="840" ht="15" customHeight="1" spans="1:2">
+      <c r="A840" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B840" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="841" ht="15" customHeight="1" spans="1:2">
+      <c r="A841" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B841" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="842" ht="15" customHeight="1" spans="1:2">
+      <c r="A842" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B842" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="843" ht="15" customHeight="1" spans="1:2">
+      <c r="A843" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B843" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="844" ht="15" customHeight="1" spans="1:2">
+      <c r="A844" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B844" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="845" ht="15" customHeight="1" spans="1:2">
+      <c r="A845" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B845" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="846" ht="15" customHeight="1" spans="1:2">
+      <c r="A846" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B846" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="847" ht="15" customHeight="1" spans="1:2">
+      <c r="A847" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B847" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="848" ht="15" customHeight="1" spans="1:2">
+      <c r="A848" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B848" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="849" ht="15" customHeight="1" spans="1:2">
+      <c r="A849" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B849" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="850" ht="15" customHeight="1" spans="1:2">
+      <c r="A850" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B850" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="851" ht="15" customHeight="1" spans="1:2">
+      <c r="A851" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B851" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="852" ht="15" customHeight="1" spans="1:2">
+      <c r="A852" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B852" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="853" ht="15" customHeight="1" spans="1:2">
+      <c r="A853" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B853" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="854" ht="15" customHeight="1" spans="1:2">
+      <c r="A854" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B854" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="855" ht="15" customHeight="1" spans="1:2">
+      <c r="A855" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B855" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="856" ht="15" customHeight="1" spans="1:2">
+      <c r="A856" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B856" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="857" ht="15" customHeight="1" spans="1:2">
+      <c r="A857" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B857" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="858" ht="15" customHeight="1" spans="1:2">
+      <c r="A858" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B858" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="859" ht="15" customHeight="1" spans="1:2">
+      <c r="A859" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B859" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="860" ht="15" customHeight="1" spans="1:2">
+      <c r="A860" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B860" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="861" ht="15" customHeight="1" spans="1:2">
+      <c r="A861" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B861" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="862" ht="15" customHeight="1" spans="1:2">
+      <c r="A862" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B862" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="863" ht="15" customHeight="1" spans="1:2">
+      <c r="A863" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B863" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="864" ht="15" customHeight="1" spans="1:2">
+      <c r="A864" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B864" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="865" ht="15" customHeight="1" spans="1:2">
+      <c r="A865" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B865" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="866" ht="15" customHeight="1" spans="1:2">
+      <c r="A866" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B866" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="867" ht="15" customHeight="1" spans="1:2">
+      <c r="A867" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B867" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="868" ht="15" customHeight="1" spans="1:2">
+      <c r="A868" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B868" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="869" ht="15" customHeight="1" spans="1:2">
+      <c r="A869" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B869" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="870" ht="15" customHeight="1" spans="1:2">
+      <c r="A870" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B870" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="871" ht="15" customHeight="1" spans="1:2">
+      <c r="A871" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B871" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="872" ht="15" customHeight="1" spans="1:2">
+      <c r="A872" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B872" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="873" ht="15" customHeight="1" spans="1:2">
+      <c r="A873" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B873" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="874" ht="15" customHeight="1" spans="1:2">
+      <c r="A874" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B874" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="875" ht="15" customHeight="1" spans="1:2">
+      <c r="A875" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B875" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="876" ht="15" customHeight="1" spans="1:2">
+      <c r="A876" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B876" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="877" ht="15" customHeight="1" spans="1:2">
+      <c r="A877" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B877" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="878" ht="15" customHeight="1" spans="1:2">
+      <c r="A878" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B878" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="879" ht="15" customHeight="1" spans="1:2">
+      <c r="A879" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B879" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="880" ht="15" customHeight="1" spans="1:2">
+      <c r="A880" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B880" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="881" ht="15" customHeight="1" spans="1:2">
+      <c r="A881" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B881" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="882" ht="15" customHeight="1" spans="1:2">
+      <c r="A882" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B882" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="883" ht="15" customHeight="1" spans="1:2">
+      <c r="A883" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B883" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="884" ht="15" customHeight="1" spans="1:2">
+      <c r="A884" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B884" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="885" ht="15" customHeight="1" spans="1:2">
+      <c r="A885" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B885" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="886" ht="15" customHeight="1" spans="1:2">
+      <c r="A886" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B886" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="887" ht="15" customHeight="1" spans="1:2">
+      <c r="A887" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B887" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="888" ht="15" customHeight="1" spans="1:2">
+      <c r="A888" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B888" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="889" ht="15" customHeight="1" spans="1:2">
+      <c r="A889" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B889" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="890" ht="15" customHeight="1" spans="1:2">
+      <c r="A890" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B890" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="891" ht="15" customHeight="1" spans="1:2">
+      <c r="A891" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B891" t="s">
+        <v>1733</v>
       </c>
     </row>
   </sheetData>
